--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A36E6-7022-490A-A5AE-B8B87B7B3AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4197996-8668-409C-8836-6E9778C2FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="90600" yWindow="315" windowWidth="23490" windowHeight="21525" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10909,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC6E19-EFB6-4A65-A18E-D9F980744A88}">
   <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="A596" sqref="A596:E601"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12324,10 +12324,10 @@
         <v>972026</v>
       </c>
       <c r="D97" s="5">
-        <v>33472</v>
+        <v>36472</v>
       </c>
       <c r="E97" s="5">
-        <v>21731</v>
+        <v>18731</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12341,7 +12341,7 @@
         <v>616720</v>
       </c>
       <c r="D98" s="5">
-        <v>23788</v>
+        <v>23688</v>
       </c>
       <c r="E98" s="5">
         <v>13251</v>
@@ -12369,7 +12369,7 @@
         <v>641086</v>
       </c>
       <c r="D100" s="5">
-        <v>25085</v>
+        <v>25865</v>
       </c>
       <c r="E100" s="5">
         <v>16646</v>
@@ -12386,7 +12386,7 @@
         <v>21990</v>
       </c>
       <c r="E101" s="5">
-        <v>16817</v>
+        <v>15817</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12394,7 +12394,7 @@
         <v>1900</v>
       </c>
       <c r="C102" s="5">
-        <v>659484</v>
+        <v>620388</v>
       </c>
       <c r="D102" s="5">
         <v>22793</v>
@@ -12408,7 +12408,7 @@
         <v>1901</v>
       </c>
       <c r="C103" s="5">
-        <v>667293</v>
+        <v>659484</v>
       </c>
       <c r="D103" s="5">
         <v>21821</v>
@@ -12787,7 +12787,7 @@
         <v>1897</v>
       </c>
       <c r="C129" s="5">
-        <v>671566</v>
+        <v>681566</v>
       </c>
       <c r="D129" s="5">
         <v>23455</v>
@@ -12801,7 +12801,7 @@
         <v>1898</v>
       </c>
       <c r="C130" s="5">
-        <v>688470</v>
+        <v>668470</v>
       </c>
       <c r="D130" s="5">
         <v>22427</v>
@@ -12815,7 +12815,7 @@
         <v>1899</v>
       </c>
       <c r="C131" s="5">
-        <v>698752</v>
+        <v>688752</v>
       </c>
       <c r="D131" s="5">
         <v>22674</v>
@@ -12860,7 +12860,7 @@
         <v>1896</v>
       </c>
       <c r="C134" s="5">
-        <v>764139</v>
+        <v>774139</v>
       </c>
       <c r="D134" s="5">
         <v>30441</v>
@@ -12874,7 +12874,7 @@
         <v>1897</v>
       </c>
       <c r="C135" s="5">
-        <v>792109</v>
+        <v>774139</v>
       </c>
       <c r="D135" s="5">
         <v>32358</v>
@@ -12916,7 +12916,7 @@
         <v>1900</v>
       </c>
       <c r="C138" s="5">
-        <v>892026</v>
+        <v>878938</v>
       </c>
       <c r="D138" s="5">
         <v>33645</v>
@@ -12930,7 +12930,7 @@
         <v>1901</v>
       </c>
       <c r="C139" s="5">
-        <v>917379</v>
+        <v>892676</v>
       </c>
       <c r="D139" s="5">
         <v>34720</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4197996-8668-409C-8836-6E9778C2FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECF858-8D1B-45AE-BEFB-9BB3EC0C51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90600" yWindow="315" windowWidth="23490" windowHeight="21525" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="88425" yWindow="0" windowWidth="26670" windowHeight="22800" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -610,6 +610,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10909,8 +10910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC6E19-EFB6-4A65-A18E-D9F980744A88}">
   <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C619" sqref="C619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10988,7 +10990,7 @@
         <v>1899</v>
       </c>
       <c r="C5" s="5">
-        <v>369444</v>
+        <v>365444</v>
       </c>
       <c r="D5" s="5">
         <v>15171</v>
@@ -11060,7 +11062,7 @@
       <c r="B10" s="6">
         <v>1898</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>981777</v>
       </c>
       <c r="D10" s="5">
@@ -11206,7 +11208,7 @@
       <c r="B20" s="6">
         <v>1896</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>1502895</v>
       </c>
       <c r="D20" s="5">
@@ -11276,7 +11278,7 @@
       <c r="B25" s="6">
         <v>1901</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <v>1623546</v>
       </c>
       <c r="D25" s="5">
@@ -11411,11 +11413,11 @@
       <c r="C34" s="5">
         <v>1504606</v>
       </c>
-      <c r="D34" s="5">
-        <v>59034</v>
+      <c r="D34" s="7">
+        <v>68127</v>
       </c>
       <c r="E34" s="5">
-        <v>38404</v>
+        <v>34057</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11843,7 +11845,7 @@
       <c r="B64" s="6">
         <v>1898</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="7">
         <v>1667353</v>
       </c>
       <c r="D64" s="5">
@@ -11996,7 +11998,7 @@
         <v>54189</v>
       </c>
       <c r="E74" s="5">
-        <v>38854</v>
+        <v>28854</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12010,7 +12012,7 @@
         <v>56481</v>
       </c>
       <c r="E75" s="5">
-        <v>30818</v>
+        <v>29818</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12024,7 +12026,7 @@
         <v>53338</v>
       </c>
       <c r="E76" s="5">
-        <v>40543</v>
+        <v>30543</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12038,7 +12040,7 @@
         <v>48994</v>
       </c>
       <c r="E77" s="5">
-        <v>37781</v>
+        <v>27781</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12052,7 +12054,7 @@
         <v>56060</v>
       </c>
       <c r="E78" s="5">
-        <v>38527</v>
+        <v>32527</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12066,7 +12068,7 @@
         <v>58452</v>
       </c>
       <c r="E79" s="5">
-        <v>38019</v>
+        <v>35019</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12257,7 +12259,7 @@
         <v>32293</v>
       </c>
       <c r="E92" s="5">
-        <v>19386</v>
+        <v>17386</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12268,10 +12270,10 @@
         <v>898284</v>
       </c>
       <c r="D93" s="5">
-        <v>32186</v>
+        <v>34186</v>
       </c>
       <c r="E93" s="5">
-        <v>19171</v>
+        <v>16171</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12282,10 +12284,10 @@
         <v>914611</v>
       </c>
       <c r="D94" s="5">
-        <v>30622</v>
+        <v>32622</v>
       </c>
       <c r="E94" s="5">
-        <v>18011</v>
+        <v>17011</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12296,10 +12298,10 @@
         <v>934592</v>
       </c>
       <c r="D95" s="5">
-        <v>32043</v>
+        <v>34043</v>
       </c>
       <c r="E95" s="5">
-        <v>19853</v>
+        <v>17853</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12310,10 +12312,10 @@
         <v>955641</v>
       </c>
       <c r="D96" s="5">
-        <v>32067</v>
+        <v>34067</v>
       </c>
       <c r="E96" s="5">
-        <v>19011</v>
+        <v>16011</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12453,7 +12455,7 @@
         <v>1898</v>
       </c>
       <c r="C106" s="5">
-        <v>1266129</v>
+        <v>1236129</v>
       </c>
       <c r="D106" s="5">
         <v>59166</v>
@@ -12467,7 +12469,7 @@
         <v>1899</v>
       </c>
       <c r="C107" s="5">
-        <v>1297694</v>
+        <v>1267694</v>
       </c>
       <c r="D107" s="5">
         <v>52635</v>
@@ -12512,7 +12514,7 @@
         <v>1896</v>
       </c>
       <c r="C110" s="5">
-        <v>1475168</v>
+        <v>1335168</v>
       </c>
       <c r="D110" s="5">
         <v>59129</v>
@@ -12526,7 +12528,7 @@
         <v>1897</v>
       </c>
       <c r="C111" s="5">
-        <v>1500026</v>
+        <v>1430236</v>
       </c>
       <c r="D111" s="5">
         <v>61999</v>
@@ -12540,7 +12542,7 @@
         <v>1898</v>
       </c>
       <c r="C112" s="5">
-        <v>1530124</v>
+        <v>1689124</v>
       </c>
       <c r="D112" s="5">
         <v>68611</v>
@@ -12554,7 +12556,7 @@
         <v>1899</v>
       </c>
       <c r="C113" s="5">
-        <v>1552856</v>
+        <v>1592856</v>
       </c>
       <c r="D113" s="5">
         <v>62757</v>
@@ -12567,8 +12569,8 @@
       <c r="B114" s="6">
         <v>1900</v>
       </c>
-      <c r="C114" s="5">
-        <v>1581741</v>
+      <c r="C114" s="7">
+        <v>1571741</v>
       </c>
       <c r="D114" s="5">
         <v>69881</v>
@@ -12605,7 +12607,7 @@
         <v>22103</v>
       </c>
       <c r="E116" s="5">
-        <v>14237</v>
+        <v>11237</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12619,7 +12621,7 @@
         <v>24389</v>
       </c>
       <c r="E117" s="5">
-        <v>16281</v>
+        <v>13281</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12627,7 +12629,7 @@
         <v>1898</v>
       </c>
       <c r="C118" s="5">
-        <v>684701</v>
+        <v>694701</v>
       </c>
       <c r="D118" s="5">
         <v>25318</v>
@@ -12655,7 +12657,7 @@
         <v>1900</v>
       </c>
       <c r="C120" s="5">
-        <v>709812</v>
+        <v>679812</v>
       </c>
       <c r="D120" s="5">
         <v>24003</v>
@@ -12742,7 +12744,7 @@
         <v>1900</v>
       </c>
       <c r="C126" s="5">
-        <v>1003966</v>
+        <v>993966</v>
       </c>
       <c r="D126" s="5">
         <v>38003</v>
@@ -12773,7 +12775,7 @@
         <v>1896</v>
       </c>
       <c r="C128" s="5">
-        <v>653858</v>
+        <v>663858</v>
       </c>
       <c r="D128" s="5">
         <v>22164</v>
@@ -12975,7 +12977,7 @@
         <v>1898</v>
       </c>
       <c r="C142" s="5">
-        <v>686024</v>
+        <v>676024</v>
       </c>
       <c r="D142" s="5">
         <v>19302</v>
@@ -13412,7 +13414,7 @@
       <c r="C172" s="5">
         <v>1438395</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="7">
         <v>61980</v>
       </c>
       <c r="E172" s="5">
@@ -13671,7 +13673,7 @@
         <v>1898</v>
       </c>
       <c r="C190" s="5">
-        <v>2297286</v>
+        <v>2277286</v>
       </c>
       <c r="D190" s="5">
         <v>124752</v>
@@ -14019,7 +14021,7 @@
         <v>1898</v>
       </c>
       <c r="C214" s="5">
-        <v>2458154</v>
+        <v>2455154</v>
       </c>
       <c r="D214" s="5">
         <v>119398</v>
@@ -14106,13 +14108,13 @@
         <v>1898</v>
       </c>
       <c r="C220" s="5">
-        <v>1678018</v>
+        <v>1681827</v>
       </c>
       <c r="D220" s="5">
-        <v>72969</v>
+        <v>76196</v>
       </c>
       <c r="E220" s="5">
-        <v>58952</v>
+        <v>51518</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14120,13 +14122,13 @@
         <v>1899</v>
       </c>
       <c r="C221" s="5">
-        <v>1681827</v>
+        <v>1678018</v>
       </c>
       <c r="D221" s="5">
-        <v>76196</v>
+        <v>72969</v>
       </c>
       <c r="E221" s="5">
-        <v>51518</v>
+        <v>58952</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14164,7 +14166,7 @@
       <c r="B224" s="6">
         <v>1896</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="7">
         <v>988610</v>
       </c>
       <c r="D224" s="5">
@@ -14294,7 +14296,7 @@
         <v>1899</v>
       </c>
       <c r="C233" s="5">
-        <v>1721436</v>
+        <v>1701436</v>
       </c>
       <c r="D233" s="5">
         <v>88252</v>
@@ -14426,7 +14428,7 @@
         <v>1896</v>
       </c>
       <c r="C242" s="5">
-        <v>366647</v>
+        <v>378199</v>
       </c>
       <c r="D242" s="5">
         <v>16651</v>
@@ -14440,7 +14442,7 @@
         <v>1897</v>
       </c>
       <c r="C243" s="5">
-        <v>371536</v>
+        <v>380403</v>
       </c>
       <c r="D243" s="5">
         <v>17173</v>
@@ -14600,7 +14602,7 @@
         <v>1896</v>
       </c>
       <c r="C254" s="5">
-        <v>1483948</v>
+        <v>1615758</v>
       </c>
       <c r="D254" s="5">
         <v>84989</v>
@@ -14614,7 +14616,7 @@
         <v>1897</v>
       </c>
       <c r="C255" s="5">
-        <v>1516033</v>
+        <v>1600844</v>
       </c>
       <c r="D255" s="5">
         <v>86890</v>
@@ -14701,7 +14703,7 @@
         <v>1897</v>
       </c>
       <c r="C261" s="5">
-        <v>3048839</v>
+        <v>3015455</v>
       </c>
       <c r="D261" s="5">
         <v>170314</v>
@@ -14729,7 +14731,7 @@
         <v>1899</v>
       </c>
       <c r="C263" s="5">
-        <v>3163696</v>
+        <v>3005705</v>
       </c>
       <c r="D263" s="5">
         <v>175233</v>
@@ -14743,10 +14745,10 @@
         <v>1900</v>
       </c>
       <c r="C264" s="5">
-        <v>3222918</v>
+        <v>3163695</v>
       </c>
       <c r="D264" s="5">
-        <v>179038</v>
+        <v>149038</v>
       </c>
       <c r="E264" s="5">
         <v>119815</v>
@@ -14757,7 +14759,7 @@
         <v>1901</v>
       </c>
       <c r="C265" s="5">
-        <v>3269537</v>
+        <v>3222918</v>
       </c>
       <c r="D265" s="5">
         <v>182787</v>
@@ -14774,7 +14776,7 @@
         <v>1896</v>
       </c>
       <c r="C266" s="5">
-        <v>3144756</v>
+        <v>3199812</v>
       </c>
       <c r="D266" s="5">
         <v>133870</v>
@@ -14788,7 +14790,7 @@
         <v>1897</v>
       </c>
       <c r="C267" s="5">
-        <v>3209230</v>
+        <v>3246885</v>
       </c>
       <c r="D267" s="5">
         <v>132567</v>
@@ -14816,7 +14818,7 @@
         <v>1899</v>
       </c>
       <c r="C269" s="5">
-        <v>3356890</v>
+        <v>3355890</v>
       </c>
       <c r="D269" s="5">
         <v>138310</v>
@@ -14861,7 +14863,7 @@
         <v>1896</v>
       </c>
       <c r="C272" s="5">
-        <v>1136580</v>
+        <v>1098528</v>
       </c>
       <c r="D272" s="5">
         <v>49900</v>
@@ -14875,7 +14877,7 @@
         <v>1897</v>
       </c>
       <c r="C273" s="5">
-        <v>1152511</v>
+        <v>1134578</v>
       </c>
       <c r="D273" s="5">
         <v>52804</v>
@@ -14889,7 +14891,7 @@
         <v>1898</v>
       </c>
       <c r="C274" s="5">
-        <v>1170898</v>
+        <v>1151868</v>
       </c>
       <c r="D274" s="5">
         <v>54304</v>
@@ -14903,12 +14905,12 @@
         <v>1899</v>
       </c>
       <c r="C275" s="5">
-        <v>1191689</v>
+        <v>1170898</v>
       </c>
       <c r="D275" s="5">
         <v>55396</v>
       </c>
-      <c r="E275" s="5">
+      <c r="E275" s="7">
         <v>34605</v>
       </c>
     </row>
@@ -14917,7 +14919,7 @@
         <v>1900</v>
       </c>
       <c r="C276" s="5">
-        <v>1204145</v>
+        <v>1189264</v>
       </c>
       <c r="D276" s="5">
         <v>52312</v>
@@ -14931,13 +14933,13 @@
         <v>1901</v>
       </c>
       <c r="C277" s="5">
-        <v>1219011</v>
+        <v>1206874</v>
       </c>
       <c r="D277" s="5">
-        <v>52586</v>
+        <v>54586</v>
       </c>
       <c r="E277" s="5">
-        <v>42149</v>
+        <v>42449</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14948,7 +14950,7 @@
         <v>1896</v>
       </c>
       <c r="C278" s="5">
-        <v>1927537</v>
+        <v>2017274</v>
       </c>
       <c r="D278" s="5">
         <v>100592</v>
@@ -14962,13 +14964,13 @@
         <v>1897</v>
       </c>
       <c r="C279" s="5">
-        <v>1954955</v>
+        <v>2046967</v>
       </c>
       <c r="D279" s="5">
         <v>99573</v>
       </c>
-      <c r="E279" s="5">
-        <v>69880</v>
+      <c r="E279" s="7">
+        <v>60802</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14976,13 +14978,13 @@
         <v>1898</v>
       </c>
       <c r="C280" s="5">
-        <v>1966335</v>
+        <v>2066335</v>
       </c>
       <c r="D280" s="5">
         <v>96158</v>
       </c>
       <c r="E280" s="5">
-        <v>48778</v>
+        <v>76790</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15004,7 +15006,7 @@
         <v>1900</v>
       </c>
       <c r="C282" s="5">
-        <v>2040789</v>
+        <v>2140789</v>
       </c>
       <c r="D282" s="5">
         <v>101371</v>
@@ -15018,7 +15020,7 @@
         <v>1901</v>
       </c>
       <c r="C283" s="5">
-        <v>2072608</v>
+        <v>2172608</v>
       </c>
       <c r="D283" s="5">
         <v>105426</v>
@@ -15035,7 +15037,7 @@
         <v>1896</v>
       </c>
       <c r="C284" s="5">
-        <v>2761851</v>
+        <v>2740499</v>
       </c>
       <c r="D284" s="5">
         <v>166929</v>
@@ -15049,7 +15051,7 @@
         <v>1897</v>
       </c>
       <c r="C285" s="5">
-        <v>2822245</v>
+        <v>2798006</v>
       </c>
       <c r="D285" s="5">
         <v>170466</v>
@@ -15063,7 +15065,7 @@
         <v>1898</v>
       </c>
       <c r="C286" s="5">
-        <v>2905305</v>
+        <v>2861655</v>
       </c>
       <c r="D286" s="5">
         <v>165242</v>
@@ -15077,7 +15079,7 @@
         <v>1899</v>
       </c>
       <c r="C287" s="5">
-        <v>2947754</v>
+        <v>2905305</v>
       </c>
       <c r="D287" s="5">
         <v>155684</v>
@@ -15091,7 +15093,7 @@
         <v>1900</v>
       </c>
       <c r="C288" s="5">
-        <v>3015836</v>
+        <v>2947726</v>
       </c>
       <c r="D288" s="5">
         <v>173695</v>
@@ -15139,7 +15141,7 @@
         <v>851370</v>
       </c>
       <c r="D291" s="5">
-        <v>30238</v>
+        <v>31428</v>
       </c>
       <c r="E291" s="5">
         <v>23940</v>
@@ -15208,7 +15210,7 @@
       <c r="B296" s="6">
         <v>1896</v>
       </c>
-      <c r="C296" s="5">
+      <c r="C296" s="7">
         <v>1167023</v>
       </c>
       <c r="D296" s="5">
@@ -15279,7 +15281,7 @@
         <v>1901</v>
       </c>
       <c r="C301" s="5">
-        <v>1268374</v>
+        <v>1288374</v>
       </c>
       <c r="D301" s="5">
         <v>36567</v>
@@ -15296,7 +15298,7 @@
         <v>1896</v>
       </c>
       <c r="C302" s="5">
-        <v>2419756</v>
+        <v>2532841</v>
       </c>
       <c r="D302" s="5">
         <v>136181</v>
@@ -15310,7 +15312,7 @@
         <v>1897</v>
       </c>
       <c r="C303" s="5">
-        <v>2468128</v>
+        <v>2458519</v>
       </c>
       <c r="D303" s="5">
         <v>141356</v>
@@ -15324,13 +15326,13 @@
         <v>1898</v>
       </c>
       <c r="C304" s="5">
-        <v>2492150</v>
+        <v>2517470</v>
       </c>
       <c r="D304" s="5">
-        <v>135081</v>
+        <v>136081</v>
       </c>
       <c r="E304" s="5">
-        <v>104828</v>
+        <v>98233</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15338,13 +15340,13 @@
         <v>1899</v>
       </c>
       <c r="C305" s="5">
-        <v>2517470</v>
+        <v>2571470</v>
       </c>
       <c r="D305" s="5">
         <v>136081</v>
       </c>
       <c r="E305" s="5">
-        <v>98233</v>
+        <v>50330</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15352,13 +15354,13 @@
         <v>1900</v>
       </c>
       <c r="C306" s="5">
-        <v>2566124</v>
+        <v>2566420</v>
       </c>
       <c r="D306" s="5">
-        <v>148859</v>
+        <v>136081</v>
       </c>
       <c r="E306" s="5">
-        <v>87222</v>
+        <v>50330</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15383,7 +15385,7 @@
         <v>1896</v>
       </c>
       <c r="C308" s="5">
-        <v>1550458</v>
+        <v>1558753</v>
       </c>
       <c r="D308" s="5">
         <v>83918</v>
@@ -15397,7 +15399,7 @@
         <v>1897</v>
       </c>
       <c r="C309" s="5">
-        <v>1579601</v>
+        <v>1574411</v>
       </c>
       <c r="D309" s="5">
         <v>85522</v>
@@ -15470,7 +15472,7 @@
         <v>1896</v>
       </c>
       <c r="C314" s="5">
-        <v>1550973</v>
+        <v>1630640</v>
       </c>
       <c r="D314" s="5">
         <v>79701</v>
@@ -15484,7 +15486,7 @@
         <v>1897</v>
       </c>
       <c r="C315" s="5">
-        <v>1590192</v>
+        <v>1653843</v>
       </c>
       <c r="D315" s="5">
         <v>84013</v>
@@ -15529,7 +15531,7 @@
         <v>1699349</v>
       </c>
       <c r="D318" s="5">
-        <v>87759</v>
+        <v>83459</v>
       </c>
       <c r="E318" s="5">
         <v>60902</v>
@@ -15540,7 +15542,7 @@
         <v>1901</v>
       </c>
       <c r="C319" s="5">
-        <v>1723317</v>
+        <v>1725317</v>
       </c>
       <c r="D319" s="5">
         <v>86945</v>
@@ -15557,13 +15559,13 @@
         <v>1896</v>
       </c>
       <c r="C320" s="5">
-        <v>1423835</v>
+        <v>1345508</v>
       </c>
       <c r="D320" s="5">
-        <v>67383</v>
+        <v>65383</v>
       </c>
       <c r="E320" s="5">
-        <v>33055</v>
+        <v>31892</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15571,7 +15573,7 @@
         <v>1897</v>
       </c>
       <c r="C321" s="5">
-        <v>1426837</v>
+        <v>1424366</v>
       </c>
       <c r="D321" s="5">
         <v>68771</v>
@@ -15605,7 +15607,7 @@
         <v>70050</v>
       </c>
       <c r="E323" s="5">
-        <v>37296</v>
+        <v>47995</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15613,7 +15615,7 @@
         <v>1900</v>
       </c>
       <c r="C324" s="5">
-        <v>1524392</v>
+        <v>1554392</v>
       </c>
       <c r="D324" s="5">
         <v>68430</v>
@@ -15644,7 +15646,7 @@
         <v>1896</v>
       </c>
       <c r="C326" s="5">
-        <v>2715265</v>
+        <v>2932745</v>
       </c>
       <c r="D326" s="5">
         <v>144989</v>
@@ -15658,7 +15660,7 @@
         <v>1897</v>
       </c>
       <c r="C327" s="5">
-        <v>2769204</v>
+        <v>2988668</v>
       </c>
       <c r="D327" s="5">
         <v>148253</v>
@@ -15692,7 +15694,7 @@
         <v>148152</v>
       </c>
       <c r="E329" s="5">
-        <v>86606</v>
+        <v>96606</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15703,7 +15705,7 @@
         <v>3149625</v>
       </c>
       <c r="D330" s="5">
-        <v>155565</v>
+        <v>156565</v>
       </c>
       <c r="E330" s="5">
         <v>91358</v>
@@ -15731,7 +15733,7 @@
         <v>1896</v>
       </c>
       <c r="C332" s="5">
-        <v>1912559</v>
+        <v>1991727</v>
       </c>
       <c r="D332" s="5">
         <v>88178</v>
@@ -15745,7 +15747,7 @@
         <v>1897</v>
       </c>
       <c r="C333" s="5">
-        <v>1976494</v>
+        <v>2017362</v>
       </c>
       <c r="D333" s="5">
         <v>89815</v>
@@ -15773,7 +15775,7 @@
         <v>1899</v>
       </c>
       <c r="C335" s="5">
-        <v>2079665</v>
+        <v>2078665</v>
       </c>
       <c r="D335" s="5">
         <v>94327</v>
@@ -15793,7 +15795,7 @@
         <v>92374</v>
       </c>
       <c r="E336" s="5">
-        <v>67275</v>
+        <v>64844</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15818,13 +15820,13 @@
         <v>1896</v>
       </c>
       <c r="C338" s="5">
-        <v>1431322</v>
+        <v>1600737</v>
       </c>
       <c r="D338" s="5">
         <v>83327</v>
       </c>
       <c r="E338" s="5">
-        <v>57395</v>
+        <v>58395</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15832,10 +15834,10 @@
         <v>1897</v>
       </c>
       <c r="C339" s="5">
-        <v>1454113</v>
+        <v>1432743</v>
       </c>
       <c r="D339" s="5">
-        <v>88892</v>
+        <v>80892</v>
       </c>
       <c r="E339" s="5">
         <v>57747</v>
@@ -15846,7 +15848,7 @@
         <v>1898</v>
       </c>
       <c r="C340" s="5">
-        <v>1467986</v>
+        <v>1447986</v>
       </c>
       <c r="D340" s="5">
         <v>77639</v>
@@ -15860,7 +15862,7 @@
         <v>1899</v>
       </c>
       <c r="C341" s="5">
-        <v>1479730</v>
+        <v>1469730</v>
       </c>
       <c r="D341" s="5">
         <v>81412</v>
@@ -15874,7 +15876,7 @@
         <v>1900</v>
       </c>
       <c r="C342" s="5">
-        <v>1490341</v>
+        <v>1497341</v>
       </c>
       <c r="D342" s="5">
         <v>84797</v>
@@ -15905,7 +15907,7 @@
         <v>1896</v>
       </c>
       <c r="C344" s="5">
-        <v>2259838</v>
+        <v>2277158</v>
       </c>
       <c r="D344" s="5">
         <v>117091</v>
@@ -15919,7 +15921,7 @@
         <v>1897</v>
       </c>
       <c r="C345" s="5">
-        <v>2324244</v>
+        <v>2350399</v>
       </c>
       <c r="D345" s="5">
         <v>120155</v>
@@ -15947,7 +15949,7 @@
         <v>1899</v>
       </c>
       <c r="C347" s="5">
-        <v>2435621</v>
+        <v>2420652</v>
       </c>
       <c r="D347" s="5">
         <v>106163</v>
@@ -15992,7 +15994,7 @@
         <v>1896</v>
       </c>
       <c r="C350" s="5">
-        <v>2610378</v>
+        <v>2621695</v>
       </c>
       <c r="D350" s="5">
         <v>139176</v>
@@ -16006,7 +16008,7 @@
         <v>1897</v>
       </c>
       <c r="C351" s="5">
-        <v>2665605</v>
+        <v>2650022</v>
       </c>
       <c r="D351" s="5">
         <v>138735</v>
@@ -16020,7 +16022,7 @@
         <v>1898</v>
       </c>
       <c r="C352" s="5">
-        <v>2726175</v>
+        <v>2676175</v>
       </c>
       <c r="D352" s="5">
         <v>131635</v>
@@ -16034,7 +16036,7 @@
         <v>1899</v>
       </c>
       <c r="C353" s="5">
-        <v>2782671</v>
+        <v>2720456</v>
       </c>
       <c r="D353" s="5">
         <v>141752</v>
@@ -16048,7 +16050,7 @@
         <v>1900</v>
       </c>
       <c r="C354" s="5">
-        <v>2813040</v>
+        <v>2757568</v>
       </c>
       <c r="D354" s="5">
         <v>137164</v>
@@ -16062,7 +16064,7 @@
         <v>1901</v>
       </c>
       <c r="C355" s="5">
-        <v>2827618</v>
+        <v>2773057</v>
       </c>
       <c r="D355" s="5">
         <v>132166</v>
@@ -16079,7 +16081,7 @@
         <v>1896</v>
       </c>
       <c r="C356" s="5">
-        <v>2231797</v>
+        <v>2038341</v>
       </c>
       <c r="D356" s="5">
         <v>117306</v>
@@ -16093,7 +16095,7 @@
         <v>1897</v>
       </c>
       <c r="C357" s="5">
-        <v>2289120</v>
+        <v>2235731</v>
       </c>
       <c r="D357" s="5">
         <v>113453</v>
@@ -16107,13 +16109,13 @@
         <v>1898</v>
       </c>
       <c r="C358" s="5">
-        <v>2340599</v>
+        <v>2290599</v>
       </c>
       <c r="D358" s="5">
         <v>116575</v>
       </c>
       <c r="E358" s="5">
-        <v>63696</v>
+        <v>93696</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -16121,7 +16123,7 @@
         <v>1899</v>
       </c>
       <c r="C359" s="5">
-        <v>2394247</v>
+        <v>2342423</v>
       </c>
       <c r="D359" s="5">
         <v>121212</v>
@@ -16135,7 +16137,7 @@
         <v>1900</v>
       </c>
       <c r="C360" s="5">
-        <v>2450575</v>
+        <v>2394247</v>
       </c>
       <c r="D360" s="5">
         <v>112861</v>
@@ -16149,7 +16151,7 @@
         <v>1901</v>
       </c>
       <c r="C361" s="5">
-        <v>2492382</v>
+        <v>2450575</v>
       </c>
       <c r="D361" s="5">
         <v>303114</v>
@@ -16166,7 +16168,7 @@
         <v>1896</v>
       </c>
       <c r="C362" s="5">
-        <v>71060</v>
+        <v>72060</v>
       </c>
       <c r="D362" s="5">
         <v>3518</v>
@@ -16430,7 +16432,7 @@
         <v>1193593</v>
       </c>
       <c r="D380" s="5">
-        <v>46695</v>
+        <v>44795</v>
       </c>
       <c r="E380" s="5">
         <v>37232</v>
@@ -16441,7 +16443,7 @@
         <v>1897</v>
       </c>
       <c r="C381" s="5">
-        <v>1211469</v>
+        <v>1281469</v>
       </c>
       <c r="D381" s="5">
         <v>46846</v>
@@ -16454,7 +16456,7 @@
       <c r="B382" s="6">
         <v>1898</v>
       </c>
-      <c r="C382" s="5">
+      <c r="C382" s="7">
         <v>1236763</v>
       </c>
       <c r="D382" s="5">
@@ -16949,7 +16951,7 @@
         <v>1896</v>
       </c>
       <c r="C416" s="5">
-        <v>1826323</v>
+        <v>1926323</v>
       </c>
       <c r="D416" s="5">
         <v>117278</v>
@@ -17036,7 +17038,7 @@
         <v>1896</v>
       </c>
       <c r="C422" s="5">
-        <v>1069969</v>
+        <v>1059969</v>
       </c>
       <c r="D422" s="5">
         <v>29470</v>
@@ -17471,7 +17473,7 @@
         <v>1896</v>
       </c>
       <c r="C452" s="5">
-        <v>789191</v>
+        <v>756191</v>
       </c>
       <c r="D452" s="5">
         <v>29298</v>
@@ -17485,7 +17487,7 @@
         <v>1897</v>
       </c>
       <c r="C453" s="5">
-        <v>808089</v>
+        <v>888689</v>
       </c>
       <c r="D453" s="5">
         <v>29328</v>
@@ -17499,7 +17501,7 @@
         <v>1898</v>
       </c>
       <c r="C454" s="5">
-        <v>829222</v>
+        <v>819222</v>
       </c>
       <c r="D454" s="5">
         <v>32305</v>
@@ -17586,7 +17588,7 @@
         <v>1898</v>
       </c>
       <c r="C460" s="5">
-        <v>93784</v>
+        <v>92784</v>
       </c>
       <c r="D460" s="5">
         <v>3951</v>
@@ -17614,7 +17616,7 @@
         <v>1900</v>
       </c>
       <c r="C462" s="5">
-        <v>101637</v>
+        <v>101137</v>
       </c>
       <c r="D462" s="5">
         <v>4983</v>
@@ -17645,7 +17647,7 @@
         <v>1896</v>
       </c>
       <c r="C464" s="5">
-        <v>547807</v>
+        <v>544807</v>
       </c>
       <c r="D464" s="5">
         <v>27402</v>
@@ -17673,7 +17675,7 @@
         <v>1898</v>
       </c>
       <c r="C466" s="5">
-        <v>566738</v>
+        <v>546738</v>
       </c>
       <c r="D466" s="5">
         <v>29746</v>
@@ -17686,10 +17688,10 @@
       <c r="B467" s="6">
         <v>1899</v>
       </c>
-      <c r="C467" s="5">
-        <v>577851</v>
-      </c>
-      <c r="D467" s="5">
+      <c r="C467" s="7">
+        <v>607500</v>
+      </c>
+      <c r="D467" s="7">
         <v>30525</v>
       </c>
       <c r="E467" s="5">
@@ -17701,7 +17703,7 @@
         <v>1900</v>
       </c>
       <c r="C468" s="5">
-        <v>587851</v>
+        <v>616266</v>
       </c>
       <c r="D468" s="5">
         <v>34448</v>
@@ -17715,7 +17717,7 @@
         <v>1901</v>
       </c>
       <c r="C469" s="5">
-        <v>600467</v>
+        <v>682644</v>
       </c>
       <c r="D469" s="5">
         <v>36344</v>
@@ -17738,7 +17740,7 @@
         <v>24504</v>
       </c>
       <c r="E470" s="5">
-        <v>16653</v>
+        <v>15653</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -17819,13 +17821,13 @@
         <v>1896</v>
       </c>
       <c r="C476" s="5">
-        <v>491188</v>
+        <v>497188</v>
       </c>
       <c r="D476" s="5">
-        <v>23058</v>
+        <v>25758</v>
       </c>
       <c r="E476" s="5">
-        <v>18897</v>
+        <v>21225</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -17861,7 +17863,7 @@
         <v>1899</v>
       </c>
       <c r="C479" s="5">
-        <v>529738</v>
+        <v>539738</v>
       </c>
       <c r="D479" s="5">
         <v>23630</v>
@@ -18035,7 +18037,7 @@
         <v>1899</v>
       </c>
       <c r="C491" s="5">
-        <v>1493244</v>
+        <v>1423244</v>
       </c>
       <c r="D491" s="5">
         <v>86597</v>
@@ -18049,7 +18051,7 @@
         <v>1900</v>
       </c>
       <c r="C492" s="5">
-        <v>1523244</v>
+        <v>1598388</v>
       </c>
       <c r="D492" s="5">
         <v>90140</v>
@@ -18063,7 +18065,7 @@
         <v>1901</v>
       </c>
       <c r="C493" s="5">
-        <v>1555652</v>
+        <v>1605652</v>
       </c>
       <c r="D493" s="5">
         <v>91242</v>
@@ -18136,10 +18138,10 @@
         <v>1900</v>
       </c>
       <c r="C498" s="5">
-        <v>2138274</v>
+        <v>2038274</v>
       </c>
       <c r="D498" s="5">
-        <v>115373</v>
+        <v>112373</v>
       </c>
       <c r="E498" s="5">
         <v>74439</v>
@@ -18150,7 +18152,7 @@
         <v>1901</v>
       </c>
       <c r="C499" s="5">
-        <v>2182933</v>
+        <v>2082933</v>
       </c>
       <c r="D499" s="5">
         <v>114291</v>
@@ -18167,13 +18169,13 @@
         <v>1896</v>
       </c>
       <c r="C500" s="5">
-        <v>273954</v>
+        <v>277353</v>
       </c>
       <c r="D500" s="5">
-        <v>11035</v>
+        <v>11277</v>
       </c>
       <c r="E500" s="5">
-        <v>6520</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -18181,13 +18183,13 @@
         <v>1897</v>
       </c>
       <c r="C501" s="5">
-        <v>276353</v>
+        <v>273954</v>
       </c>
       <c r="D501" s="5">
-        <v>11277</v>
+        <v>11035</v>
       </c>
       <c r="E501" s="5">
-        <v>6451</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -18195,10 +18197,10 @@
         <v>1898</v>
       </c>
       <c r="C502" s="5">
-        <v>280813</v>
+        <v>269570</v>
       </c>
       <c r="D502" s="5">
-        <v>10547</v>
+        <v>9757</v>
       </c>
       <c r="E502" s="5">
         <v>5790</v>
@@ -18209,10 +18211,10 @@
         <v>1899</v>
       </c>
       <c r="C503" s="5">
-        <v>284615</v>
+        <v>277615</v>
       </c>
       <c r="D503" s="5">
-        <v>10850</v>
+        <v>10550</v>
       </c>
       <c r="E503" s="5">
         <v>7252</v>
@@ -18223,7 +18225,7 @@
         <v>1900</v>
       </c>
       <c r="C504" s="5">
-        <v>288282</v>
+        <v>258282</v>
       </c>
       <c r="D504" s="5">
         <v>10593</v>
@@ -18237,7 +18239,7 @@
         <v>1901</v>
       </c>
       <c r="C505" s="5">
-        <v>291708</v>
+        <v>261708</v>
       </c>
       <c r="D505" s="5">
         <v>13200</v>
@@ -19500,7 +19502,7 @@
         <v>1898</v>
       </c>
       <c r="C592" s="5">
-        <v>70691430</v>
+        <v>70694430</v>
       </c>
       <c r="D592" s="5">
         <v>3398279</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECF858-8D1B-45AE-BEFB-9BB3EC0C51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC46BCE-9D02-4EAC-81D1-BBE3C2D560C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="88425" yWindow="0" windowWidth="26670" windowHeight="22800" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="172">
   <si>
     <t>губ</t>
   </si>
@@ -549,6 +549,12 @@
   <si>
     <t xml:space="preserve"> неземские -&gt; земские</t>
   </si>
+  <si>
+    <t>Опечатки отмеченные в самом издании (список опечаток на стр 112-114) выделены жёлтым цветом.</t>
+  </si>
+  <si>
+    <t>Остальные исправленные ошибки помечены голубым цветом.</t>
+  </si>
 </sst>
 </file>
 
@@ -574,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -611,6 +623,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10911,8 +10924,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C619" sqref="C619"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11062,7 +11075,7 @@
       <c r="B10" s="6">
         <v>1898</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>981777</v>
       </c>
       <c r="D10" s="5">
@@ -11191,7 +11204,7 @@
       <c r="B19" s="6">
         <v>1901</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>1752165</v>
       </c>
       <c r="D19" s="5">
@@ -11208,7 +11221,7 @@
       <c r="B20" s="6">
         <v>1896</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>1502895</v>
       </c>
       <c r="D20" s="5">
@@ -19909,10 +19922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1534AD4B-C9E9-4A6D-BFFF-DEB1B62FA6C7}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20059,6 +20072,16 @@
         <v>78983</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC46BCE-9D02-4EAC-81D1-BBE3C2D560C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E116C76-9A04-4AA1-8DB9-77658B496757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="88425" yWindow="0" windowWidth="26670" windowHeight="22800" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="98970" yWindow="0" windowWidth="16125" windowHeight="22800" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,6 +630,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10924,8 +10940,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11291,7 +11307,7 @@
       <c r="B25" s="6">
         <v>1901</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>1623546</v>
       </c>
       <c r="D25" s="5">
@@ -11328,7 +11344,7 @@
       <c r="D27" s="5">
         <v>138067</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="9">
         <v>75285</v>
       </c>
     </row>
@@ -11426,11 +11442,11 @@
       <c r="C34" s="5">
         <v>1504606</v>
       </c>
-      <c r="D34" s="7">
-        <v>68127</v>
-      </c>
-      <c r="E34" s="5">
-        <v>34057</v>
+      <c r="D34" s="9">
+        <v>59034</v>
+      </c>
+      <c r="E34" s="10">
+        <v>38404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11858,7 +11874,7 @@
       <c r="B64" s="6">
         <v>1898</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="9">
         <v>1667353</v>
       </c>
       <c r="D64" s="5">
@@ -12010,8 +12026,8 @@
       <c r="D74" s="5">
         <v>54189</v>
       </c>
-      <c r="E74" s="5">
-        <v>28854</v>
+      <c r="E74" s="9">
+        <v>38854</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12024,8 +12040,8 @@
       <c r="D75" s="5">
         <v>56481</v>
       </c>
-      <c r="E75" s="5">
-        <v>29818</v>
+      <c r="E75" s="9">
+        <v>30818</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12038,8 +12054,8 @@
       <c r="D76" s="5">
         <v>53338</v>
       </c>
-      <c r="E76" s="5">
-        <v>30543</v>
+      <c r="E76" s="9">
+        <v>40543</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12052,8 +12068,8 @@
       <c r="D77" s="5">
         <v>48994</v>
       </c>
-      <c r="E77" s="5">
-        <v>27781</v>
+      <c r="E77" s="9">
+        <v>37781</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12066,8 +12082,8 @@
       <c r="D78" s="5">
         <v>56060</v>
       </c>
-      <c r="E78" s="5">
-        <v>32527</v>
+      <c r="E78" s="9">
+        <v>38527</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12080,8 +12096,8 @@
       <c r="D79" s="5">
         <v>58452</v>
       </c>
-      <c r="E79" s="5">
-        <v>35019</v>
+      <c r="E79" s="9">
+        <v>38019</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12268,11 +12284,11 @@
       <c r="C92" s="5">
         <v>876675</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="9">
         <v>32293</v>
       </c>
-      <c r="E92" s="5">
-        <v>17386</v>
+      <c r="E92" s="9">
+        <v>19386</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12282,11 +12298,11 @@
       <c r="C93" s="5">
         <v>898284</v>
       </c>
-      <c r="D93" s="5">
-        <v>34186</v>
-      </c>
-      <c r="E93" s="5">
-        <v>16171</v>
+      <c r="D93" s="9">
+        <v>32186</v>
+      </c>
+      <c r="E93" s="9">
+        <v>19171</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12296,11 +12312,11 @@
       <c r="C94" s="5">
         <v>914611</v>
       </c>
-      <c r="D94" s="5">
-        <v>32622</v>
-      </c>
-      <c r="E94" s="5">
-        <v>17011</v>
+      <c r="D94" s="9">
+        <v>30622</v>
+      </c>
+      <c r="E94" s="11">
+        <v>18011</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12310,11 +12326,11 @@
       <c r="C95" s="5">
         <v>934592</v>
       </c>
-      <c r="D95" s="5">
-        <v>34043</v>
-      </c>
-      <c r="E95" s="5">
-        <v>17853</v>
+      <c r="D95" s="12">
+        <v>32043</v>
+      </c>
+      <c r="E95" s="12">
+        <v>19853</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12324,11 +12340,11 @@
       <c r="C96" s="5">
         <v>955641</v>
       </c>
-      <c r="D96" s="5">
-        <v>34067</v>
-      </c>
-      <c r="E96" s="5">
-        <v>16011</v>
+      <c r="D96" s="12">
+        <v>32067</v>
+      </c>
+      <c r="E96" s="12">
+        <v>19011</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12338,11 +12354,11 @@
       <c r="C97" s="5">
         <v>972026</v>
       </c>
-      <c r="D97" s="5">
-        <v>36472</v>
-      </c>
-      <c r="E97" s="5">
-        <v>18731</v>
+      <c r="D97" s="12">
+        <v>33472</v>
+      </c>
+      <c r="E97" s="12">
+        <v>21731</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12355,8 +12371,8 @@
       <c r="C98" s="5">
         <v>616720</v>
       </c>
-      <c r="D98" s="5">
-        <v>23688</v>
+      <c r="D98" s="12">
+        <v>23788</v>
       </c>
       <c r="E98" s="5">
         <v>13251</v>
@@ -12383,8 +12399,8 @@
       <c r="C100" s="5">
         <v>641086</v>
       </c>
-      <c r="D100" s="5">
-        <v>25865</v>
+      <c r="D100" s="12">
+        <v>25085</v>
       </c>
       <c r="E100" s="5">
         <v>16646</v>
@@ -12408,8 +12424,8 @@
       <c r="B102" s="6">
         <v>1900</v>
       </c>
-      <c r="C102" s="5">
-        <v>620388</v>
+      <c r="C102" s="12">
+        <v>659484</v>
       </c>
       <c r="D102" s="5">
         <v>22793</v>
@@ -12422,8 +12438,8 @@
       <c r="B103" s="6">
         <v>1901</v>
       </c>
-      <c r="C103" s="5">
-        <v>659484</v>
+      <c r="C103" s="12">
+        <v>667293</v>
       </c>
       <c r="D103" s="5">
         <v>21821</v>
@@ -12526,8 +12542,8 @@
       <c r="B110" s="6">
         <v>1896</v>
       </c>
-      <c r="C110" s="5">
-        <v>1335168</v>
+      <c r="C110" s="12">
+        <v>1475168</v>
       </c>
       <c r="D110" s="5">
         <v>59129</v>
@@ -12540,8 +12556,8 @@
       <c r="B111" s="6">
         <v>1897</v>
       </c>
-      <c r="C111" s="5">
-        <v>1430236</v>
+      <c r="C111" s="12">
+        <v>1500026</v>
       </c>
       <c r="D111" s="5">
         <v>61999</v>
@@ -12554,8 +12570,8 @@
       <c r="B112" s="6">
         <v>1898</v>
       </c>
-      <c r="C112" s="5">
-        <v>1689124</v>
+      <c r="C112" s="12">
+        <v>1530124</v>
       </c>
       <c r="D112" s="5">
         <v>68611</v>
@@ -12568,8 +12584,8 @@
       <c r="B113" s="6">
         <v>1899</v>
       </c>
-      <c r="C113" s="5">
-        <v>1592856</v>
+      <c r="C113" s="12">
+        <v>1552856</v>
       </c>
       <c r="D113" s="5">
         <v>62757</v>
@@ -12582,8 +12598,8 @@
       <c r="B114" s="6">
         <v>1900</v>
       </c>
-      <c r="C114" s="7">
-        <v>1571741</v>
+      <c r="C114" s="9">
+        <v>1581741</v>
       </c>
       <c r="D114" s="5">
         <v>69881</v>
@@ -12619,8 +12635,8 @@
       <c r="D116" s="5">
         <v>22103</v>
       </c>
-      <c r="E116" s="5">
-        <v>11237</v>
+      <c r="E116" s="10">
+        <v>14237</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12633,16 +12649,16 @@
       <c r="D117" s="5">
         <v>24389</v>
       </c>
-      <c r="E117" s="5">
-        <v>13281</v>
+      <c r="E117" s="9">
+        <v>16281</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="6">
         <v>1898</v>
       </c>
-      <c r="C118" s="5">
-        <v>694701</v>
+      <c r="C118" s="10">
+        <v>684701</v>
       </c>
       <c r="D118" s="5">
         <v>25318</v>
@@ -12669,8 +12685,8 @@
       <c r="B120" s="6">
         <v>1900</v>
       </c>
-      <c r="C120" s="5">
-        <v>679812</v>
+      <c r="C120" s="9">
+        <v>709812</v>
       </c>
       <c r="D120" s="5">
         <v>24003</v>
@@ -12756,8 +12772,8 @@
       <c r="B126" s="6">
         <v>1900</v>
       </c>
-      <c r="C126" s="5">
-        <v>993966</v>
+      <c r="C126" s="9">
+        <v>1003966</v>
       </c>
       <c r="D126" s="5">
         <v>38003</v>
@@ -12787,8 +12803,8 @@
       <c r="B128" s="6">
         <v>1896</v>
       </c>
-      <c r="C128" s="5">
-        <v>663858</v>
+      <c r="C128" s="10">
+        <v>653858</v>
       </c>
       <c r="D128" s="5">
         <v>22164</v>
@@ -12801,8 +12817,8 @@
       <c r="B129" s="6">
         <v>1897</v>
       </c>
-      <c r="C129" s="5">
-        <v>681566</v>
+      <c r="C129" s="9">
+        <v>671566</v>
       </c>
       <c r="D129" s="5">
         <v>23455</v>
@@ -12815,8 +12831,8 @@
       <c r="B130" s="6">
         <v>1898</v>
       </c>
-      <c r="C130" s="5">
-        <v>668470</v>
+      <c r="C130" s="9">
+        <v>688470</v>
       </c>
       <c r="D130" s="5">
         <v>22427</v>
@@ -12829,8 +12845,8 @@
       <c r="B131" s="6">
         <v>1899</v>
       </c>
-      <c r="C131" s="5">
-        <v>688752</v>
+      <c r="C131" s="9">
+        <v>698752</v>
       </c>
       <c r="D131" s="5">
         <v>22674</v>
@@ -12874,8 +12890,8 @@
       <c r="B134" s="6">
         <v>1896</v>
       </c>
-      <c r="C134" s="5">
-        <v>774139</v>
+      <c r="C134" s="9">
+        <v>764139</v>
       </c>
       <c r="D134" s="5">
         <v>30441</v>
@@ -12888,8 +12904,8 @@
       <c r="B135" s="6">
         <v>1897</v>
       </c>
-      <c r="C135" s="5">
-        <v>774139</v>
+      <c r="C135" s="10">
+        <v>792109</v>
       </c>
       <c r="D135" s="5">
         <v>32358</v>
@@ -12930,8 +12946,8 @@
       <c r="B138" s="6">
         <v>1900</v>
       </c>
-      <c r="C138" s="5">
-        <v>878938</v>
+      <c r="C138" s="9">
+        <v>892026</v>
       </c>
       <c r="D138" s="5">
         <v>33645</v>
@@ -12944,8 +12960,8 @@
       <c r="B139" s="6">
         <v>1901</v>
       </c>
-      <c r="C139" s="5">
-        <v>892676</v>
+      <c r="C139" s="9">
+        <v>917379</v>
       </c>
       <c r="D139" s="5">
         <v>34720</v>
@@ -12989,8 +13005,8 @@
       <c r="B142" s="6">
         <v>1898</v>
       </c>
-      <c r="C142" s="5">
-        <v>676024</v>
+      <c r="C142" s="10">
+        <v>686024</v>
       </c>
       <c r="D142" s="5">
         <v>19302</v>
@@ -13427,7 +13443,7 @@
       <c r="C172" s="5">
         <v>1438395</v>
       </c>
-      <c r="D172" s="7">
+      <c r="D172" s="9">
         <v>61980</v>
       </c>
       <c r="E172" s="5">
@@ -13685,8 +13701,8 @@
       <c r="B190" s="6">
         <v>1898</v>
       </c>
-      <c r="C190" s="5">
-        <v>2277286</v>
+      <c r="C190" s="9">
+        <v>2297286</v>
       </c>
       <c r="D190" s="5">
         <v>124752</v>
@@ -13879,7 +13895,7 @@
       <c r="D203" s="5">
         <v>65375</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="9">
         <v>42074</v>
       </c>
     </row>
@@ -13932,7 +13948,7 @@
       <c r="B207" s="6">
         <v>1897</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="9">
         <v>1449958</v>
       </c>
       <c r="D207" s="5">
@@ -14033,8 +14049,8 @@
       <c r="B214" s="6">
         <v>1898</v>
       </c>
-      <c r="C214" s="5">
-        <v>2455154</v>
+      <c r="C214" s="9">
+        <v>2458154</v>
       </c>
       <c r="D214" s="5">
         <v>119398</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E116C76-9A04-4AA1-8DB9-77658B496757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA689EC-22E7-429B-B71F-D93FF1B7A342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="98970" yWindow="0" windowWidth="16125" windowHeight="22800" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="96180" yWindow="135" windowWidth="17445" windowHeight="23025" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10940,8 +10940,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G285" sqref="G285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14136,28 +14136,28 @@
       <c r="B220" s="6">
         <v>1898</v>
       </c>
-      <c r="C220" s="5">
-        <v>1681827</v>
-      </c>
-      <c r="D220" s="5">
-        <v>76196</v>
-      </c>
-      <c r="E220" s="5">
-        <v>51518</v>
+      <c r="C220" s="9">
+        <v>1678018</v>
+      </c>
+      <c r="D220" s="9">
+        <v>72969</v>
+      </c>
+      <c r="E220" s="9">
+        <v>58952</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="6">
         <v>1899</v>
       </c>
-      <c r="C221" s="5">
-        <v>1678018</v>
-      </c>
-      <c r="D221" s="5">
-        <v>72969</v>
-      </c>
-      <c r="E221" s="5">
-        <v>58952</v>
+      <c r="C221" s="9">
+        <v>1681827</v>
+      </c>
+      <c r="D221" s="9">
+        <v>76196</v>
+      </c>
+      <c r="E221" s="9">
+        <v>51518</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14195,7 +14195,7 @@
       <c r="B224" s="6">
         <v>1896</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="10">
         <v>988610</v>
       </c>
       <c r="D224" s="5">
@@ -14296,7 +14296,7 @@
       <c r="B231" s="6">
         <v>1897</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="10">
         <v>1628379</v>
       </c>
       <c r="D231" s="5">
@@ -14324,8 +14324,8 @@
       <c r="B233" s="6">
         <v>1899</v>
       </c>
-      <c r="C233" s="5">
-        <v>1701436</v>
+      <c r="C233" s="9">
+        <v>1721136</v>
       </c>
       <c r="D233" s="5">
         <v>88252</v>
@@ -14456,8 +14456,8 @@
       <c r="B242" s="6">
         <v>1896</v>
       </c>
-      <c r="C242" s="5">
-        <v>378199</v>
+      <c r="C242" s="9">
+        <v>366647</v>
       </c>
       <c r="D242" s="5">
         <v>16651</v>
@@ -14470,8 +14470,8 @@
       <c r="B243" s="6">
         <v>1897</v>
       </c>
-      <c r="C243" s="5">
-        <v>380403</v>
+      <c r="C243" s="9">
+        <v>371536</v>
       </c>
       <c r="D243" s="5">
         <v>17173</v>
@@ -14630,8 +14630,8 @@
       <c r="B254" s="6">
         <v>1896</v>
       </c>
-      <c r="C254" s="5">
-        <v>1615758</v>
+      <c r="C254" s="10">
+        <v>1483948</v>
       </c>
       <c r="D254" s="5">
         <v>84989</v>
@@ -14644,8 +14644,8 @@
       <c r="B255" s="6">
         <v>1897</v>
       </c>
-      <c r="C255" s="5">
-        <v>1600844</v>
+      <c r="C255" s="10">
+        <v>1516033</v>
       </c>
       <c r="D255" s="5">
         <v>86890</v>
@@ -14731,8 +14731,8 @@
       <c r="B261" s="6">
         <v>1897</v>
       </c>
-      <c r="C261" s="5">
-        <v>3015455</v>
+      <c r="C261" s="10">
+        <v>3048839</v>
       </c>
       <c r="D261" s="5">
         <v>170314</v>
@@ -14759,8 +14759,8 @@
       <c r="B263" s="6">
         <v>1899</v>
       </c>
-      <c r="C263" s="5">
-        <v>3005705</v>
+      <c r="C263" s="10">
+        <v>3163696</v>
       </c>
       <c r="D263" s="5">
         <v>175233</v>
@@ -14773,11 +14773,11 @@
       <c r="B264" s="6">
         <v>1900</v>
       </c>
-      <c r="C264" s="5">
-        <v>3163695</v>
-      </c>
-      <c r="D264" s="5">
-        <v>149038</v>
+      <c r="C264" s="9">
+        <v>3222918</v>
+      </c>
+      <c r="D264" s="10">
+        <v>179038</v>
       </c>
       <c r="E264" s="5">
         <v>119815</v>
@@ -14787,8 +14787,8 @@
       <c r="B265" s="6">
         <v>1901</v>
       </c>
-      <c r="C265" s="5">
-        <v>3222918</v>
+      <c r="C265" s="9">
+        <v>3269537</v>
       </c>
       <c r="D265" s="5">
         <v>182787</v>
@@ -14804,8 +14804,8 @@
       <c r="B266" s="6">
         <v>1896</v>
       </c>
-      <c r="C266" s="5">
-        <v>3199812</v>
+      <c r="C266" s="9">
+        <v>3144756</v>
       </c>
       <c r="D266" s="5">
         <v>133870</v>
@@ -14818,8 +14818,8 @@
       <c r="B267" s="6">
         <v>1897</v>
       </c>
-      <c r="C267" s="5">
-        <v>3246885</v>
+      <c r="C267" s="9">
+        <v>3209230</v>
       </c>
       <c r="D267" s="5">
         <v>132567</v>
@@ -14891,8 +14891,8 @@
       <c r="B272" s="6">
         <v>1896</v>
       </c>
-      <c r="C272" s="5">
-        <v>1098528</v>
+      <c r="C272" s="9">
+        <v>1136580</v>
       </c>
       <c r="D272" s="5">
         <v>49900</v>
@@ -14905,8 +14905,8 @@
       <c r="B273" s="6">
         <v>1897</v>
       </c>
-      <c r="C273" s="5">
-        <v>1134578</v>
+      <c r="C273" s="10">
+        <v>1152511</v>
       </c>
       <c r="D273" s="5">
         <v>52804</v>
@@ -14919,8 +14919,8 @@
       <c r="B274" s="6">
         <v>1898</v>
       </c>
-      <c r="C274" s="5">
-        <v>1151868</v>
+      <c r="C274" s="9">
+        <v>1170898</v>
       </c>
       <c r="D274" s="5">
         <v>54304</v>
@@ -14933,13 +14933,13 @@
       <c r="B275" s="6">
         <v>1899</v>
       </c>
-      <c r="C275" s="5">
-        <v>1170898</v>
+      <c r="C275" s="10">
+        <v>1191689</v>
       </c>
       <c r="D275" s="5">
         <v>55396</v>
       </c>
-      <c r="E275" s="7">
+      <c r="E275" s="9">
         <v>34605</v>
       </c>
     </row>
@@ -14947,8 +14947,8 @@
       <c r="B276" s="6">
         <v>1900</v>
       </c>
-      <c r="C276" s="5">
-        <v>1189264</v>
+      <c r="C276" s="10">
+        <v>1204145</v>
       </c>
       <c r="D276" s="5">
         <v>52312</v>
@@ -14961,11 +14961,11 @@
       <c r="B277" s="6">
         <v>1901</v>
       </c>
-      <c r="C277" s="5">
-        <v>1206874</v>
-      </c>
-      <c r="D277" s="5">
-        <v>54586</v>
+      <c r="C277" s="9">
+        <v>1219011</v>
+      </c>
+      <c r="D277" s="9">
+        <v>52586</v>
       </c>
       <c r="E277" s="5">
         <v>42449</v>
@@ -14978,8 +14978,8 @@
       <c r="B278" s="6">
         <v>1896</v>
       </c>
-      <c r="C278" s="5">
-        <v>2017274</v>
+      <c r="C278" s="10">
+        <v>1927537</v>
       </c>
       <c r="D278" s="5">
         <v>100592</v>
@@ -14992,28 +14992,28 @@
       <c r="B279" s="6">
         <v>1897</v>
       </c>
-      <c r="C279" s="5">
-        <v>2046967</v>
+      <c r="C279" s="9">
+        <v>1954955</v>
       </c>
       <c r="D279" s="5">
         <v>99573</v>
       </c>
-      <c r="E279" s="7">
-        <v>60802</v>
+      <c r="E279" s="9">
+        <v>69880</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B280" s="6">
         <v>1898</v>
       </c>
-      <c r="C280" s="5">
-        <v>2066335</v>
+      <c r="C280" s="9">
+        <v>1966335</v>
       </c>
       <c r="D280" s="5">
         <v>96158</v>
       </c>
-      <c r="E280" s="5">
-        <v>76790</v>
+      <c r="E280" s="9">
+        <v>48778</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15034,8 +15034,8 @@
       <c r="B282" s="6">
         <v>1900</v>
       </c>
-      <c r="C282" s="5">
-        <v>2140789</v>
+      <c r="C282" s="10">
+        <v>2040789</v>
       </c>
       <c r="D282" s="5">
         <v>101371</v>
@@ -15048,8 +15048,8 @@
       <c r="B283" s="6">
         <v>1901</v>
       </c>
-      <c r="C283" s="5">
-        <v>2172608</v>
+      <c r="C283" s="9">
+        <v>2072608</v>
       </c>
       <c r="D283" s="5">
         <v>105426</v>
@@ -15065,8 +15065,8 @@
       <c r="B284" s="6">
         <v>1896</v>
       </c>
-      <c r="C284" s="5">
-        <v>2740499</v>
+      <c r="C284" s="9">
+        <v>2761851</v>
       </c>
       <c r="D284" s="5">
         <v>166929</v>
@@ -15079,8 +15079,8 @@
       <c r="B285" s="6">
         <v>1897</v>
       </c>
-      <c r="C285" s="5">
-        <v>2798006</v>
+      <c r="C285" s="9">
+        <v>2822245</v>
       </c>
       <c r="D285" s="5">
         <v>170466</v>
@@ -15093,8 +15093,8 @@
       <c r="B286" s="6">
         <v>1898</v>
       </c>
-      <c r="C286" s="5">
-        <v>2861655</v>
+      <c r="C286" s="9">
+        <v>2905305</v>
       </c>
       <c r="D286" s="5">
         <v>165242</v>
@@ -15107,8 +15107,8 @@
       <c r="B287" s="6">
         <v>1899</v>
       </c>
-      <c r="C287" s="5">
-        <v>2905305</v>
+      <c r="C287" s="10">
+        <v>2947754</v>
       </c>
       <c r="D287" s="5">
         <v>155684</v>
@@ -15121,8 +15121,8 @@
       <c r="B288" s="6">
         <v>1900</v>
       </c>
-      <c r="C288" s="5">
-        <v>2947726</v>
+      <c r="C288" s="9">
+        <v>3015836</v>
       </c>
       <c r="D288" s="5">
         <v>173695</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA689EC-22E7-429B-B71F-D93FF1B7A342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBD1E9-A0CB-4D0D-802C-BB5A5D89B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96180" yWindow="135" windowWidth="17445" windowHeight="23025" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="96000" yWindow="195" windowWidth="18780" windowHeight="22680" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10940,8 +10940,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G285" sqref="G285"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C302" sqref="C302:C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15169,8 +15169,8 @@
       <c r="C291" s="5">
         <v>851370</v>
       </c>
-      <c r="D291" s="5">
-        <v>31428</v>
+      <c r="D291" s="10">
+        <v>30238</v>
       </c>
       <c r="E291" s="5">
         <v>23940</v>
@@ -15214,7 +15214,7 @@
       <c r="D294" s="5">
         <v>32624</v>
       </c>
-      <c r="E294" s="5">
+      <c r="E294" s="9">
         <v>25204</v>
       </c>
     </row>
@@ -15239,7 +15239,7 @@
       <c r="B296" s="6">
         <v>1896</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="10">
         <v>1167023</v>
       </c>
       <c r="D296" s="5">
@@ -15267,7 +15267,7 @@
       <c r="B298" s="6">
         <v>1898</v>
       </c>
-      <c r="C298" s="5">
+      <c r="C298" s="9">
         <v>1193825</v>
       </c>
       <c r="D298" s="5">
@@ -15298,7 +15298,7 @@
       <c r="C300" s="5">
         <v>1248643</v>
       </c>
-      <c r="D300" s="5">
+      <c r="D300" s="9">
         <v>36007</v>
       </c>
       <c r="E300" s="5">
@@ -15309,8 +15309,8 @@
       <c r="B301" s="6">
         <v>1901</v>
       </c>
-      <c r="C301" s="5">
-        <v>1288374</v>
+      <c r="C301" s="9">
+        <v>1268374</v>
       </c>
       <c r="D301" s="5">
         <v>36567</v>
@@ -15326,8 +15326,8 @@
       <c r="B302" s="6">
         <v>1896</v>
       </c>
-      <c r="C302" s="5">
-        <v>2532841</v>
+      <c r="C302" s="9">
+        <v>2419756</v>
       </c>
       <c r="D302" s="5">
         <v>136181</v>
@@ -15340,8 +15340,8 @@
       <c r="B303" s="6">
         <v>1897</v>
       </c>
-      <c r="C303" s="5">
-        <v>2458519</v>
+      <c r="C303" s="9">
+        <v>2468128</v>
       </c>
       <c r="D303" s="5">
         <v>141356</v>
@@ -15354,8 +15354,8 @@
       <c r="B304" s="6">
         <v>1898</v>
       </c>
-      <c r="C304" s="5">
-        <v>2517470</v>
+      <c r="C304" s="10">
+        <v>2492150</v>
       </c>
       <c r="D304" s="5">
         <v>136081</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBD1E9-A0CB-4D0D-802C-BB5A5D89B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CB26B-F5D3-4A88-8886-2EEFB6C87851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96000" yWindow="195" windowWidth="18780" windowHeight="22680" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="95880" yWindow="180" windowWidth="18975" windowHeight="23010" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10940,8 +10940,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C302" sqref="C302:C304"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15357,39 +15357,39 @@
       <c r="C304" s="10">
         <v>2492150</v>
       </c>
-      <c r="D304" s="5">
-        <v>136081</v>
-      </c>
-      <c r="E304" s="5">
-        <v>98233</v>
+      <c r="D304" s="9">
+        <v>135081</v>
+      </c>
+      <c r="E304" s="10">
+        <v>104828</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" s="6">
         <v>1899</v>
       </c>
-      <c r="C305" s="5">
-        <v>2571470</v>
+      <c r="C305" s="11">
+        <v>2517470</v>
       </c>
       <c r="D305" s="5">
         <v>136081</v>
       </c>
-      <c r="E305" s="5">
-        <v>50330</v>
+      <c r="E305" s="9">
+        <v>98233</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" s="6">
         <v>1900</v>
       </c>
-      <c r="C306" s="5">
-        <v>2566420</v>
-      </c>
-      <c r="D306" s="5">
-        <v>136081</v>
-      </c>
-      <c r="E306" s="5">
-        <v>50330</v>
+      <c r="C306" s="10">
+        <v>2566124</v>
+      </c>
+      <c r="D306" s="10">
+        <v>148859</v>
+      </c>
+      <c r="E306" s="10">
+        <v>87222</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -15413,8 +15413,8 @@
       <c r="B308" s="6">
         <v>1896</v>
       </c>
-      <c r="C308" s="5">
-        <v>1558753</v>
+      <c r="C308" s="10">
+        <v>1550458</v>
       </c>
       <c r="D308" s="5">
         <v>83918</v>
@@ -15427,8 +15427,8 @@
       <c r="B309" s="6">
         <v>1897</v>
       </c>
-      <c r="C309" s="5">
-        <v>1574411</v>
+      <c r="C309" s="8">
+        <v>1579601</v>
       </c>
       <c r="D309" s="5">
         <v>85522</v>
@@ -15500,8 +15500,8 @@
       <c r="B314" s="6">
         <v>1896</v>
       </c>
-      <c r="C314" s="5">
-        <v>1630640</v>
+      <c r="C314" s="8">
+        <v>1550973</v>
       </c>
       <c r="D314" s="5">
         <v>79701</v>
@@ -15514,8 +15514,8 @@
       <c r="B315" s="6">
         <v>1897</v>
       </c>
-      <c r="C315" s="5">
-        <v>1653843</v>
+      <c r="C315" s="10">
+        <v>1590192</v>
       </c>
       <c r="D315" s="5">
         <v>84013</v>
@@ -15559,8 +15559,8 @@
       <c r="C318" s="5">
         <v>1699349</v>
       </c>
-      <c r="D318" s="5">
-        <v>83459</v>
+      <c r="D318" s="10">
+        <v>87759</v>
       </c>
       <c r="E318" s="5">
         <v>60902</v>
@@ -15570,8 +15570,8 @@
       <c r="B319" s="6">
         <v>1901</v>
       </c>
-      <c r="C319" s="5">
-        <v>1725317</v>
+      <c r="C319" s="10">
+        <v>1723317</v>
       </c>
       <c r="D319" s="5">
         <v>86945</v>
@@ -15587,22 +15587,22 @@
       <c r="B320" s="6">
         <v>1896</v>
       </c>
-      <c r="C320" s="5">
-        <v>1345508</v>
-      </c>
-      <c r="D320" s="5">
-        <v>65383</v>
-      </c>
-      <c r="E320" s="5">
-        <v>31892</v>
+      <c r="C320" s="10">
+        <v>1423835</v>
+      </c>
+      <c r="D320" s="10">
+        <v>67383</v>
+      </c>
+      <c r="E320" s="10">
+        <v>33055</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B321" s="6">
         <v>1897</v>
       </c>
-      <c r="C321" s="5">
-        <v>1424366</v>
+      <c r="C321" s="10">
+        <v>1426837</v>
       </c>
       <c r="D321" s="5">
         <v>68771</v>
@@ -15629,22 +15629,22 @@
       <c r="B323" s="6">
         <v>1899</v>
       </c>
-      <c r="C323" s="5">
+      <c r="C323" s="10">
         <v>1479164</v>
       </c>
       <c r="D323" s="5">
         <v>70050</v>
       </c>
-      <c r="E323" s="5">
-        <v>47995</v>
+      <c r="E323" s="10">
+        <v>37296</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B324" s="6">
         <v>1900</v>
       </c>
-      <c r="C324" s="5">
-        <v>1554392</v>
+      <c r="C324" s="9">
+        <v>1524392</v>
       </c>
       <c r="D324" s="5">
         <v>68430</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CB26B-F5D3-4A88-8886-2EEFB6C87851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0405BE-A0F1-467E-BD31-C5722B9CF7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="95880" yWindow="180" windowWidth="18975" windowHeight="23010" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="95985" yWindow="150" windowWidth="17865" windowHeight="22755" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,10 +606,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -618,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -640,6 +649,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10940,8 +10956,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C359" sqref="C359:C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15657,13 +15673,13 @@
       <c r="B325" s="6">
         <v>1901</v>
       </c>
-      <c r="C325" s="5">
+      <c r="C325" s="14">
         <v>1562106</v>
       </c>
-      <c r="D325" s="5">
+      <c r="D325" s="14">
         <v>67123</v>
       </c>
-      <c r="E325" s="5">
+      <c r="E325" s="14">
         <v>37971</v>
       </c>
     </row>
@@ -15674,13 +15690,13 @@
       <c r="B326" s="6">
         <v>1896</v>
       </c>
-      <c r="C326" s="5">
-        <v>2932745</v>
-      </c>
-      <c r="D326" s="5">
+      <c r="C326" s="15">
+        <v>2715265</v>
+      </c>
+      <c r="D326" s="14">
         <v>144989</v>
       </c>
-      <c r="E326" s="5">
+      <c r="E326" s="14">
         <v>94155</v>
       </c>
     </row>
@@ -15688,13 +15704,13 @@
       <c r="B327" s="6">
         <v>1897</v>
       </c>
-      <c r="C327" s="5">
-        <v>2988668</v>
-      </c>
-      <c r="D327" s="5">
+      <c r="C327" s="15">
+        <v>2769204</v>
+      </c>
+      <c r="D327" s="14">
         <v>148253</v>
       </c>
-      <c r="E327" s="5">
+      <c r="E327" s="14">
         <v>90037</v>
       </c>
     </row>
@@ -15702,13 +15718,13 @@
       <c r="B328" s="6">
         <v>1898</v>
       </c>
-      <c r="C328" s="5">
+      <c r="C328" s="14">
         <v>3011523</v>
       </c>
-      <c r="D328" s="5">
+      <c r="D328" s="14">
         <v>139331</v>
       </c>
-      <c r="E328" s="5">
+      <c r="E328" s="14">
         <v>111021</v>
       </c>
     </row>
@@ -15716,27 +15732,27 @@
       <c r="B329" s="6">
         <v>1899</v>
       </c>
-      <c r="C329" s="5">
+      <c r="C329" s="14">
         <v>3085873</v>
       </c>
-      <c r="D329" s="5">
+      <c r="D329" s="14">
         <v>148152</v>
       </c>
-      <c r="E329" s="5">
-        <v>96606</v>
+      <c r="E329" s="15">
+        <v>86606</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B330" s="6">
         <v>1900</v>
       </c>
-      <c r="C330" s="5">
+      <c r="C330" s="14">
         <v>3149625</v>
       </c>
-      <c r="D330" s="5">
-        <v>156565</v>
-      </c>
-      <c r="E330" s="5">
+      <c r="D330" s="15">
+        <v>155565</v>
+      </c>
+      <c r="E330" s="14">
         <v>91358</v>
       </c>
     </row>
@@ -15744,13 +15760,13 @@
       <c r="B331" s="6">
         <v>1901</v>
       </c>
-      <c r="C331" s="5">
+      <c r="C331" s="14">
         <v>3161116</v>
       </c>
-      <c r="D331" s="5">
+      <c r="D331" s="14">
         <v>155877</v>
       </c>
-      <c r="E331" s="5">
+      <c r="E331" s="14">
         <v>107068</v>
       </c>
     </row>
@@ -15761,13 +15777,13 @@
       <c r="B332" s="6">
         <v>1896</v>
       </c>
-      <c r="C332" s="5">
-        <v>1991727</v>
-      </c>
-      <c r="D332" s="5">
+      <c r="C332" s="13">
+        <v>1912559</v>
+      </c>
+      <c r="D332" s="14">
         <v>88178</v>
       </c>
-      <c r="E332" s="5">
+      <c r="E332" s="14">
         <v>66574</v>
       </c>
     </row>
@@ -15775,13 +15791,13 @@
       <c r="B333" s="6">
         <v>1897</v>
       </c>
-      <c r="C333" s="5">
-        <v>2017362</v>
-      </c>
-      <c r="D333" s="5">
+      <c r="C333" s="11">
+        <v>1976494</v>
+      </c>
+      <c r="D333" s="14">
         <v>89815</v>
       </c>
-      <c r="E333" s="5">
+      <c r="E333" s="14">
         <v>64180</v>
       </c>
     </row>
@@ -15789,13 +15805,13 @@
       <c r="B334" s="6">
         <v>1898</v>
       </c>
-      <c r="C334" s="5">
+      <c r="C334" s="14">
         <v>2043290</v>
       </c>
-      <c r="D334" s="5">
+      <c r="D334" s="14">
         <v>90233</v>
       </c>
-      <c r="E334" s="5">
+      <c r="E334" s="14">
         <v>65455</v>
       </c>
     </row>
@@ -15803,13 +15819,13 @@
       <c r="B335" s="6">
         <v>1899</v>
       </c>
-      <c r="C335" s="5">
-        <v>2078665</v>
-      </c>
-      <c r="D335" s="5">
+      <c r="C335" s="11">
+        <v>2079665</v>
+      </c>
+      <c r="D335" s="14">
         <v>94327</v>
       </c>
-      <c r="E335" s="5">
+      <c r="E335" s="14">
         <v>56952</v>
       </c>
     </row>
@@ -15817,27 +15833,27 @@
       <c r="B336" s="6">
         <v>1900</v>
       </c>
-      <c r="C336" s="5">
+      <c r="C336" s="14">
         <v>2104704</v>
       </c>
-      <c r="D336" s="5">
+      <c r="D336" s="14">
         <v>92374</v>
       </c>
-      <c r="E336" s="5">
-        <v>64844</v>
+      <c r="E336" s="9">
+        <v>67275</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="6">
         <v>1901</v>
       </c>
-      <c r="C337" s="5">
+      <c r="C337" s="14">
         <v>2117891</v>
       </c>
-      <c r="D337" s="5">
+      <c r="D337" s="14">
         <v>93133</v>
       </c>
-      <c r="E337" s="5">
+      <c r="E337" s="14">
         <v>79946</v>
       </c>
     </row>
@@ -15848,25 +15864,25 @@
       <c r="B338" s="6">
         <v>1896</v>
       </c>
-      <c r="C338" s="5">
-        <v>1600737</v>
-      </c>
-      <c r="D338" s="5">
+      <c r="C338" s="9">
+        <v>1431322</v>
+      </c>
+      <c r="D338" s="14">
         <v>83327</v>
       </c>
-      <c r="E338" s="5">
-        <v>58395</v>
+      <c r="E338" s="9">
+        <v>57395</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="6">
         <v>1897</v>
       </c>
-      <c r="C339" s="5">
-        <v>1432743</v>
-      </c>
-      <c r="D339" s="5">
-        <v>80892</v>
+      <c r="C339" s="10">
+        <v>1454113</v>
+      </c>
+      <c r="D339" s="9">
+        <v>88892</v>
       </c>
       <c r="E339" s="5">
         <v>57747</v>
@@ -15876,8 +15892,8 @@
       <c r="B340" s="6">
         <v>1898</v>
       </c>
-      <c r="C340" s="5">
-        <v>1447986</v>
+      <c r="C340" s="10">
+        <v>1467986</v>
       </c>
       <c r="D340" s="5">
         <v>77639</v>
@@ -15890,8 +15906,8 @@
       <c r="B341" s="6">
         <v>1899</v>
       </c>
-      <c r="C341" s="5">
-        <v>1469730</v>
+      <c r="C341" s="9">
+        <v>1479730</v>
       </c>
       <c r="D341" s="5">
         <v>81412</v>
@@ -15904,8 +15920,8 @@
       <c r="B342" s="6">
         <v>1900</v>
       </c>
-      <c r="C342" s="5">
-        <v>1497341</v>
+      <c r="C342" s="11">
+        <v>1490341</v>
       </c>
       <c r="D342" s="5">
         <v>84797</v>
@@ -15935,8 +15951,8 @@
       <c r="B344" s="6">
         <v>1896</v>
       </c>
-      <c r="C344" s="5">
-        <v>2277158</v>
+      <c r="C344" s="9">
+        <v>2259838</v>
       </c>
       <c r="D344" s="5">
         <v>117091</v>
@@ -15949,8 +15965,8 @@
       <c r="B345" s="6">
         <v>1897</v>
       </c>
-      <c r="C345" s="5">
-        <v>2350399</v>
+      <c r="C345" s="10">
+        <v>2324241</v>
       </c>
       <c r="D345" s="5">
         <v>120155</v>
@@ -15977,8 +15993,8 @@
       <c r="B347" s="6">
         <v>1899</v>
       </c>
-      <c r="C347" s="5">
-        <v>2420652</v>
+      <c r="C347" s="10">
+        <v>2435621</v>
       </c>
       <c r="D347" s="5">
         <v>106163</v>
@@ -16022,8 +16038,8 @@
       <c r="B350" s="6">
         <v>1896</v>
       </c>
-      <c r="C350" s="5">
-        <v>2621695</v>
+      <c r="C350" s="10">
+        <v>2610378</v>
       </c>
       <c r="D350" s="5">
         <v>139176</v>
@@ -16036,8 +16052,8 @@
       <c r="B351" s="6">
         <v>1897</v>
       </c>
-      <c r="C351" s="5">
-        <v>2650022</v>
+      <c r="C351" s="10">
+        <v>2665605</v>
       </c>
       <c r="D351" s="5">
         <v>138735</v>
@@ -16050,8 +16066,8 @@
       <c r="B352" s="6">
         <v>1898</v>
       </c>
-      <c r="C352" s="5">
-        <v>2676175</v>
+      <c r="C352" s="10">
+        <v>2726175</v>
       </c>
       <c r="D352" s="5">
         <v>131635</v>
@@ -16064,8 +16080,8 @@
       <c r="B353" s="6">
         <v>1899</v>
       </c>
-      <c r="C353" s="5">
-        <v>2720456</v>
+      <c r="C353" s="8">
+        <v>2782671</v>
       </c>
       <c r="D353" s="5">
         <v>141752</v>
@@ -16078,8 +16094,8 @@
       <c r="B354" s="6">
         <v>1900</v>
       </c>
-      <c r="C354" s="5">
-        <v>2757568</v>
+      <c r="C354" s="8">
+        <v>2813040</v>
       </c>
       <c r="D354" s="5">
         <v>137164</v>
@@ -16092,8 +16108,8 @@
       <c r="B355" s="6">
         <v>1901</v>
       </c>
-      <c r="C355" s="5">
-        <v>2773057</v>
+      <c r="C355" s="10">
+        <v>2827618</v>
       </c>
       <c r="D355" s="5">
         <v>132166</v>
@@ -16109,8 +16125,8 @@
       <c r="B356" s="6">
         <v>1896</v>
       </c>
-      <c r="C356" s="5">
-        <v>2038341</v>
+      <c r="C356" s="11">
+        <v>2231797</v>
       </c>
       <c r="D356" s="5">
         <v>117306</v>
@@ -16123,8 +16139,8 @@
       <c r="B357" s="6">
         <v>1897</v>
       </c>
-      <c r="C357" s="5">
-        <v>2235731</v>
+      <c r="C357" s="10">
+        <v>2289120</v>
       </c>
       <c r="D357" s="5">
         <v>113453</v>
@@ -16137,8 +16153,8 @@
       <c r="B358" s="6">
         <v>1898</v>
       </c>
-      <c r="C358" s="5">
-        <v>2290599</v>
+      <c r="C358" s="10">
+        <v>2340599</v>
       </c>
       <c r="D358" s="5">
         <v>116575</v>
@@ -16151,22 +16167,22 @@
       <c r="B359" s="6">
         <v>1899</v>
       </c>
-      <c r="C359" s="5">
-        <v>2342423</v>
+      <c r="C359" s="9">
+        <v>2394247</v>
       </c>
       <c r="D359" s="5">
         <v>121212</v>
       </c>
-      <c r="E359" s="5">
-        <v>69388</v>
+      <c r="E359" s="10">
+        <v>63696</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="6">
         <v>1900</v>
       </c>
-      <c r="C360" s="5">
-        <v>2394247</v>
+      <c r="C360" s="9">
+        <v>2450575</v>
       </c>
       <c r="D360" s="5">
         <v>112861</v>
@@ -16179,8 +16195,8 @@
       <c r="B361" s="6">
         <v>1901</v>
       </c>
-      <c r="C361" s="5">
-        <v>2450575</v>
+      <c r="C361" s="10">
+        <v>2492382</v>
       </c>
       <c r="D361" s="5">
         <v>303114</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0405BE-A0F1-467E-BD31-C5722B9CF7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D9208-C134-4D57-9F43-33B56B771EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="95985" yWindow="150" windowWidth="17865" windowHeight="22755" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="95940" yWindow="225" windowWidth="18975" windowHeight="22515" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10956,8 +10956,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C359" sqref="C359:C361"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16212,8 +16212,8 @@
       <c r="B362" s="6">
         <v>1896</v>
       </c>
-      <c r="C362" s="5">
-        <v>72060</v>
+      <c r="C362" s="10">
+        <v>71060</v>
       </c>
       <c r="D362" s="5">
         <v>3518</v>
@@ -16226,7 +16226,7 @@
       <c r="B363" s="6">
         <v>1897</v>
       </c>
-      <c r="C363" s="5">
+      <c r="C363" s="11">
         <v>80919</v>
       </c>
       <c r="D363" s="5">
@@ -16476,8 +16476,8 @@
       <c r="C380" s="5">
         <v>1193593</v>
       </c>
-      <c r="D380" s="5">
-        <v>44795</v>
+      <c r="D380" s="10">
+        <v>46695</v>
       </c>
       <c r="E380" s="5">
         <v>37232</v>
@@ -16487,8 +16487,8 @@
       <c r="B381" s="6">
         <v>1897</v>
       </c>
-      <c r="C381" s="5">
-        <v>1281469</v>
+      <c r="C381" s="10">
+        <v>1211469</v>
       </c>
       <c r="D381" s="5">
         <v>46846</v>
@@ -16501,7 +16501,7 @@
       <c r="B382" s="6">
         <v>1898</v>
       </c>
-      <c r="C382" s="7">
+      <c r="C382" s="11">
         <v>1236763</v>
       </c>
       <c r="D382" s="5">
@@ -16529,7 +16529,7 @@
       <c r="B384" s="6">
         <v>1900</v>
       </c>
-      <c r="C384" s="5">
+      <c r="C384" s="11">
         <v>1278549</v>
       </c>
       <c r="D384" s="5">
@@ -16964,7 +16964,7 @@
       <c r="B414" s="6">
         <v>1900</v>
       </c>
-      <c r="C414" s="5">
+      <c r="C414" s="10">
         <v>278616</v>
       </c>
       <c r="D414" s="5">
@@ -16995,8 +16995,8 @@
       <c r="B416" s="6">
         <v>1896</v>
       </c>
-      <c r="C416" s="5">
-        <v>1926323</v>
+      <c r="C416" s="10">
+        <v>1826323</v>
       </c>
       <c r="D416" s="5">
         <v>117278</v>
@@ -17082,8 +17082,8 @@
       <c r="B422" s="6">
         <v>1896</v>
       </c>
-      <c r="C422" s="5">
-        <v>1059969</v>
+      <c r="C422" s="10">
+        <v>1069969</v>
       </c>
       <c r="D422" s="5">
         <v>29470</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D9208-C134-4D57-9F43-33B56B771EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463233D2-AB74-453E-982E-D933F15EAAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="95940" yWindow="225" windowWidth="18975" windowHeight="22515" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="95910" yWindow="195" windowWidth="18975" windowHeight="22725" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -637,7 +637,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -10956,8 +10955,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
+      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C468" sqref="C468:C469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11107,7 +11106,7 @@
       <c r="B10" s="6">
         <v>1898</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>981777</v>
       </c>
       <c r="D10" s="5">
@@ -11236,7 +11235,7 @@
       <c r="B19" s="6">
         <v>1901</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1752165</v>
       </c>
       <c r="D19" s="5">
@@ -11253,7 +11252,7 @@
       <c r="B20" s="6">
         <v>1896</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1502895</v>
       </c>
       <c r="D20" s="5">
@@ -11323,7 +11322,7 @@
       <c r="B25" s="6">
         <v>1901</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>1623546</v>
       </c>
       <c r="D25" s="5">
@@ -11360,7 +11359,7 @@
       <c r="D27" s="5">
         <v>138067</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>75285</v>
       </c>
     </row>
@@ -11458,10 +11457,10 @@
       <c r="C34" s="5">
         <v>1504606</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>59034</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>38404</v>
       </c>
     </row>
@@ -11890,7 +11889,7 @@
       <c r="B64" s="6">
         <v>1898</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>1667353</v>
       </c>
       <c r="D64" s="5">
@@ -12042,7 +12041,7 @@
       <c r="D74" s="5">
         <v>54189</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>38854</v>
       </c>
     </row>
@@ -12056,7 +12055,7 @@
       <c r="D75" s="5">
         <v>56481</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>30818</v>
       </c>
     </row>
@@ -12070,7 +12069,7 @@
       <c r="D76" s="5">
         <v>53338</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>40543</v>
       </c>
     </row>
@@ -12084,7 +12083,7 @@
       <c r="D77" s="5">
         <v>48994</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>37781</v>
       </c>
     </row>
@@ -12098,7 +12097,7 @@
       <c r="D78" s="5">
         <v>56060</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>38527</v>
       </c>
     </row>
@@ -12112,7 +12111,7 @@
       <c r="D79" s="5">
         <v>58452</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>38019</v>
       </c>
     </row>
@@ -12300,10 +12299,10 @@
       <c r="C92" s="5">
         <v>876675</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>32293</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>19386</v>
       </c>
     </row>
@@ -12314,10 +12313,10 @@
       <c r="C93" s="5">
         <v>898284</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>32186</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>19171</v>
       </c>
     </row>
@@ -12328,10 +12327,10 @@
       <c r="C94" s="5">
         <v>914611</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>30622</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>18011</v>
       </c>
     </row>
@@ -12342,10 +12341,10 @@
       <c r="C95" s="5">
         <v>934592</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="11">
         <v>32043</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="11">
         <v>19853</v>
       </c>
     </row>
@@ -12356,10 +12355,10 @@
       <c r="C96" s="5">
         <v>955641</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="11">
         <v>32067</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="11">
         <v>19011</v>
       </c>
     </row>
@@ -12370,10 +12369,10 @@
       <c r="C97" s="5">
         <v>972026</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="11">
         <v>33472</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="11">
         <v>21731</v>
       </c>
     </row>
@@ -12387,7 +12386,7 @@
       <c r="C98" s="5">
         <v>616720</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="11">
         <v>23788</v>
       </c>
       <c r="E98" s="5">
@@ -12415,7 +12414,7 @@
       <c r="C100" s="5">
         <v>641086</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="11">
         <v>25085</v>
       </c>
       <c r="E100" s="5">
@@ -12440,7 +12439,7 @@
       <c r="B102" s="6">
         <v>1900</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="11">
         <v>659484</v>
       </c>
       <c r="D102" s="5">
@@ -12454,7 +12453,7 @@
       <c r="B103" s="6">
         <v>1901</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="11">
         <v>667293</v>
       </c>
       <c r="D103" s="5">
@@ -12558,7 +12557,7 @@
       <c r="B110" s="6">
         <v>1896</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="11">
         <v>1475168</v>
       </c>
       <c r="D110" s="5">
@@ -12572,7 +12571,7 @@
       <c r="B111" s="6">
         <v>1897</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="11">
         <v>1500026</v>
       </c>
       <c r="D111" s="5">
@@ -12586,7 +12585,7 @@
       <c r="B112" s="6">
         <v>1898</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="11">
         <v>1530124</v>
       </c>
       <c r="D112" s="5">
@@ -12600,7 +12599,7 @@
       <c r="B113" s="6">
         <v>1899</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="11">
         <v>1552856</v>
       </c>
       <c r="D113" s="5">
@@ -12614,7 +12613,7 @@
       <c r="B114" s="6">
         <v>1900</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <v>1581741</v>
       </c>
       <c r="D114" s="5">
@@ -12651,7 +12650,7 @@
       <c r="D116" s="5">
         <v>22103</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="9">
         <v>14237</v>
       </c>
     </row>
@@ -12665,7 +12664,7 @@
       <c r="D117" s="5">
         <v>24389</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>16281</v>
       </c>
     </row>
@@ -12673,7 +12672,7 @@
       <c r="B118" s="6">
         <v>1898</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>684701</v>
       </c>
       <c r="D118" s="5">
@@ -12701,7 +12700,7 @@
       <c r="B120" s="6">
         <v>1900</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="8">
         <v>709812</v>
       </c>
       <c r="D120" s="5">
@@ -12788,7 +12787,7 @@
       <c r="B126" s="6">
         <v>1900</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="8">
         <v>1003966</v>
       </c>
       <c r="D126" s="5">
@@ -12819,7 +12818,7 @@
       <c r="B128" s="6">
         <v>1896</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>653858</v>
       </c>
       <c r="D128" s="5">
@@ -12833,7 +12832,7 @@
       <c r="B129" s="6">
         <v>1897</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="8">
         <v>671566</v>
       </c>
       <c r="D129" s="5">
@@ -12847,7 +12846,7 @@
       <c r="B130" s="6">
         <v>1898</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="8">
         <v>688470</v>
       </c>
       <c r="D130" s="5">
@@ -12861,7 +12860,7 @@
       <c r="B131" s="6">
         <v>1899</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="8">
         <v>698752</v>
       </c>
       <c r="D131" s="5">
@@ -12906,7 +12905,7 @@
       <c r="B134" s="6">
         <v>1896</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="8">
         <v>764139</v>
       </c>
       <c r="D134" s="5">
@@ -12920,7 +12919,7 @@
       <c r="B135" s="6">
         <v>1897</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="9">
         <v>792109</v>
       </c>
       <c r="D135" s="5">
@@ -12962,7 +12961,7 @@
       <c r="B138" s="6">
         <v>1900</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="8">
         <v>892026</v>
       </c>
       <c r="D138" s="5">
@@ -12976,7 +12975,7 @@
       <c r="B139" s="6">
         <v>1901</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="8">
         <v>917379</v>
       </c>
       <c r="D139" s="5">
@@ -13021,7 +13020,7 @@
       <c r="B142" s="6">
         <v>1898</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="9">
         <v>686024</v>
       </c>
       <c r="D142" s="5">
@@ -13459,7 +13458,7 @@
       <c r="C172" s="5">
         <v>1438395</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="8">
         <v>61980</v>
       </c>
       <c r="E172" s="5">
@@ -13717,7 +13716,7 @@
       <c r="B190" s="6">
         <v>1898</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="8">
         <v>2297286</v>
       </c>
       <c r="D190" s="5">
@@ -13911,7 +13910,7 @@
       <c r="D203" s="5">
         <v>65375</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="8">
         <v>42074</v>
       </c>
     </row>
@@ -13964,7 +13963,7 @@
       <c r="B207" s="6">
         <v>1897</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="8">
         <v>1449958</v>
       </c>
       <c r="D207" s="5">
@@ -14065,7 +14064,7 @@
       <c r="B214" s="6">
         <v>1898</v>
       </c>
-      <c r="C214" s="9">
+      <c r="C214" s="8">
         <v>2458154</v>
       </c>
       <c r="D214" s="5">
@@ -14152,13 +14151,13 @@
       <c r="B220" s="6">
         <v>1898</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C220" s="8">
         <v>1678018</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="8">
         <v>72969</v>
       </c>
-      <c r="E220" s="9">
+      <c r="E220" s="8">
         <v>58952</v>
       </c>
     </row>
@@ -14166,13 +14165,13 @@
       <c r="B221" s="6">
         <v>1899</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="8">
         <v>1681827</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="8">
         <v>76196</v>
       </c>
-      <c r="E221" s="9">
+      <c r="E221" s="8">
         <v>51518</v>
       </c>
     </row>
@@ -14211,7 +14210,7 @@
       <c r="B224" s="6">
         <v>1896</v>
       </c>
-      <c r="C224" s="10">
+      <c r="C224" s="9">
         <v>988610</v>
       </c>
       <c r="D224" s="5">
@@ -14312,7 +14311,7 @@
       <c r="B231" s="6">
         <v>1897</v>
       </c>
-      <c r="C231" s="10">
+      <c r="C231" s="9">
         <v>1628379</v>
       </c>
       <c r="D231" s="5">
@@ -14340,7 +14339,7 @@
       <c r="B233" s="6">
         <v>1899</v>
       </c>
-      <c r="C233" s="9">
+      <c r="C233" s="8">
         <v>1721136</v>
       </c>
       <c r="D233" s="5">
@@ -14472,7 +14471,7 @@
       <c r="B242" s="6">
         <v>1896</v>
       </c>
-      <c r="C242" s="9">
+      <c r="C242" s="8">
         <v>366647</v>
       </c>
       <c r="D242" s="5">
@@ -14486,7 +14485,7 @@
       <c r="B243" s="6">
         <v>1897</v>
       </c>
-      <c r="C243" s="9">
+      <c r="C243" s="8">
         <v>371536</v>
       </c>
       <c r="D243" s="5">
@@ -14646,7 +14645,7 @@
       <c r="B254" s="6">
         <v>1896</v>
       </c>
-      <c r="C254" s="10">
+      <c r="C254" s="9">
         <v>1483948</v>
       </c>
       <c r="D254" s="5">
@@ -14660,7 +14659,7 @@
       <c r="B255" s="6">
         <v>1897</v>
       </c>
-      <c r="C255" s="10">
+      <c r="C255" s="9">
         <v>1516033</v>
       </c>
       <c r="D255" s="5">
@@ -14747,7 +14746,7 @@
       <c r="B261" s="6">
         <v>1897</v>
       </c>
-      <c r="C261" s="10">
+      <c r="C261" s="9">
         <v>3048839</v>
       </c>
       <c r="D261" s="5">
@@ -14775,7 +14774,7 @@
       <c r="B263" s="6">
         <v>1899</v>
       </c>
-      <c r="C263" s="10">
+      <c r="C263" s="9">
         <v>3163696</v>
       </c>
       <c r="D263" s="5">
@@ -14789,10 +14788,10 @@
       <c r="B264" s="6">
         <v>1900</v>
       </c>
-      <c r="C264" s="9">
+      <c r="C264" s="8">
         <v>3222918</v>
       </c>
-      <c r="D264" s="10">
+      <c r="D264" s="9">
         <v>179038</v>
       </c>
       <c r="E264" s="5">
@@ -14803,7 +14802,7 @@
       <c r="B265" s="6">
         <v>1901</v>
       </c>
-      <c r="C265" s="9">
+      <c r="C265" s="8">
         <v>3269537</v>
       </c>
       <c r="D265" s="5">
@@ -14820,7 +14819,7 @@
       <c r="B266" s="6">
         <v>1896</v>
       </c>
-      <c r="C266" s="9">
+      <c r="C266" s="8">
         <v>3144756</v>
       </c>
       <c r="D266" s="5">
@@ -14834,7 +14833,7 @@
       <c r="B267" s="6">
         <v>1897</v>
       </c>
-      <c r="C267" s="9">
+      <c r="C267" s="8">
         <v>3209230</v>
       </c>
       <c r="D267" s="5">
@@ -14907,7 +14906,7 @@
       <c r="B272" s="6">
         <v>1896</v>
       </c>
-      <c r="C272" s="9">
+      <c r="C272" s="8">
         <v>1136580</v>
       </c>
       <c r="D272" s="5">
@@ -14921,7 +14920,7 @@
       <c r="B273" s="6">
         <v>1897</v>
       </c>
-      <c r="C273" s="10">
+      <c r="C273" s="9">
         <v>1152511</v>
       </c>
       <c r="D273" s="5">
@@ -14935,7 +14934,7 @@
       <c r="B274" s="6">
         <v>1898</v>
       </c>
-      <c r="C274" s="9">
+      <c r="C274" s="8">
         <v>1170898</v>
       </c>
       <c r="D274" s="5">
@@ -14949,13 +14948,13 @@
       <c r="B275" s="6">
         <v>1899</v>
       </c>
-      <c r="C275" s="10">
+      <c r="C275" s="9">
         <v>1191689</v>
       </c>
       <c r="D275" s="5">
         <v>55396</v>
       </c>
-      <c r="E275" s="9">
+      <c r="E275" s="8">
         <v>34605</v>
       </c>
     </row>
@@ -14963,7 +14962,7 @@
       <c r="B276" s="6">
         <v>1900</v>
       </c>
-      <c r="C276" s="10">
+      <c r="C276" s="9">
         <v>1204145</v>
       </c>
       <c r="D276" s="5">
@@ -14977,10 +14976,10 @@
       <c r="B277" s="6">
         <v>1901</v>
       </c>
-      <c r="C277" s="9">
+      <c r="C277" s="8">
         <v>1219011</v>
       </c>
-      <c r="D277" s="9">
+      <c r="D277" s="8">
         <v>52586</v>
       </c>
       <c r="E277" s="5">
@@ -14994,7 +14993,7 @@
       <c r="B278" s="6">
         <v>1896</v>
       </c>
-      <c r="C278" s="10">
+      <c r="C278" s="9">
         <v>1927537</v>
       </c>
       <c r="D278" s="5">
@@ -15008,13 +15007,13 @@
       <c r="B279" s="6">
         <v>1897</v>
       </c>
-      <c r="C279" s="9">
+      <c r="C279" s="8">
         <v>1954955</v>
       </c>
       <c r="D279" s="5">
         <v>99573</v>
       </c>
-      <c r="E279" s="9">
+      <c r="E279" s="8">
         <v>69880</v>
       </c>
     </row>
@@ -15022,13 +15021,13 @@
       <c r="B280" s="6">
         <v>1898</v>
       </c>
-      <c r="C280" s="9">
+      <c r="C280" s="8">
         <v>1966335</v>
       </c>
       <c r="D280" s="5">
         <v>96158</v>
       </c>
-      <c r="E280" s="9">
+      <c r="E280" s="8">
         <v>48778</v>
       </c>
     </row>
@@ -15050,7 +15049,7 @@
       <c r="B282" s="6">
         <v>1900</v>
       </c>
-      <c r="C282" s="10">
+      <c r="C282" s="9">
         <v>2040789</v>
       </c>
       <c r="D282" s="5">
@@ -15064,7 +15063,7 @@
       <c r="B283" s="6">
         <v>1901</v>
       </c>
-      <c r="C283" s="9">
+      <c r="C283" s="8">
         <v>2072608</v>
       </c>
       <c r="D283" s="5">
@@ -15081,7 +15080,7 @@
       <c r="B284" s="6">
         <v>1896</v>
       </c>
-      <c r="C284" s="9">
+      <c r="C284" s="8">
         <v>2761851</v>
       </c>
       <c r="D284" s="5">
@@ -15095,7 +15094,7 @@
       <c r="B285" s="6">
         <v>1897</v>
       </c>
-      <c r="C285" s="9">
+      <c r="C285" s="8">
         <v>2822245</v>
       </c>
       <c r="D285" s="5">
@@ -15109,7 +15108,7 @@
       <c r="B286" s="6">
         <v>1898</v>
       </c>
-      <c r="C286" s="9">
+      <c r="C286" s="8">
         <v>2905305</v>
       </c>
       <c r="D286" s="5">
@@ -15123,7 +15122,7 @@
       <c r="B287" s="6">
         <v>1899</v>
       </c>
-      <c r="C287" s="10">
+      <c r="C287" s="9">
         <v>2947754</v>
       </c>
       <c r="D287" s="5">
@@ -15137,7 +15136,7 @@
       <c r="B288" s="6">
         <v>1900</v>
       </c>
-      <c r="C288" s="9">
+      <c r="C288" s="8">
         <v>3015836</v>
       </c>
       <c r="D288" s="5">
@@ -15185,7 +15184,7 @@
       <c r="C291" s="5">
         <v>851370</v>
       </c>
-      <c r="D291" s="10">
+      <c r="D291" s="9">
         <v>30238</v>
       </c>
       <c r="E291" s="5">
@@ -15230,7 +15229,7 @@
       <c r="D294" s="5">
         <v>32624</v>
       </c>
-      <c r="E294" s="9">
+      <c r="E294" s="8">
         <v>25204</v>
       </c>
     </row>
@@ -15255,7 +15254,7 @@
       <c r="B296" s="6">
         <v>1896</v>
       </c>
-      <c r="C296" s="10">
+      <c r="C296" s="9">
         <v>1167023</v>
       </c>
       <c r="D296" s="5">
@@ -15283,7 +15282,7 @@
       <c r="B298" s="6">
         <v>1898</v>
       </c>
-      <c r="C298" s="9">
+      <c r="C298" s="8">
         <v>1193825</v>
       </c>
       <c r="D298" s="5">
@@ -15314,7 +15313,7 @@
       <c r="C300" s="5">
         <v>1248643</v>
       </c>
-      <c r="D300" s="9">
+      <c r="D300" s="8">
         <v>36007</v>
       </c>
       <c r="E300" s="5">
@@ -15325,7 +15324,7 @@
       <c r="B301" s="6">
         <v>1901</v>
       </c>
-      <c r="C301" s="9">
+      <c r="C301" s="8">
         <v>1268374</v>
       </c>
       <c r="D301" s="5">
@@ -15342,7 +15341,7 @@
       <c r="B302" s="6">
         <v>1896</v>
       </c>
-      <c r="C302" s="9">
+      <c r="C302" s="8">
         <v>2419756</v>
       </c>
       <c r="D302" s="5">
@@ -15356,7 +15355,7 @@
       <c r="B303" s="6">
         <v>1897</v>
       </c>
-      <c r="C303" s="9">
+      <c r="C303" s="8">
         <v>2468128</v>
       </c>
       <c r="D303" s="5">
@@ -15370,13 +15369,13 @@
       <c r="B304" s="6">
         <v>1898</v>
       </c>
-      <c r="C304" s="10">
+      <c r="C304" s="9">
         <v>2492150</v>
       </c>
-      <c r="D304" s="9">
+      <c r="D304" s="8">
         <v>135081</v>
       </c>
-      <c r="E304" s="10">
+      <c r="E304" s="9">
         <v>104828</v>
       </c>
     </row>
@@ -15384,13 +15383,13 @@
       <c r="B305" s="6">
         <v>1899</v>
       </c>
-      <c r="C305" s="11">
+      <c r="C305" s="10">
         <v>2517470</v>
       </c>
       <c r="D305" s="5">
         <v>136081</v>
       </c>
-      <c r="E305" s="9">
+      <c r="E305" s="8">
         <v>98233</v>
       </c>
     </row>
@@ -15398,13 +15397,13 @@
       <c r="B306" s="6">
         <v>1900</v>
       </c>
-      <c r="C306" s="10">
+      <c r="C306" s="9">
         <v>2566124</v>
       </c>
-      <c r="D306" s="10">
+      <c r="D306" s="9">
         <v>148859</v>
       </c>
-      <c r="E306" s="10">
+      <c r="E306" s="9">
         <v>87222</v>
       </c>
     </row>
@@ -15429,7 +15428,7 @@
       <c r="B308" s="6">
         <v>1896</v>
       </c>
-      <c r="C308" s="10">
+      <c r="C308" s="9">
         <v>1550458</v>
       </c>
       <c r="D308" s="5">
@@ -15443,7 +15442,7 @@
       <c r="B309" s="6">
         <v>1897</v>
       </c>
-      <c r="C309" s="8">
+      <c r="C309" s="7">
         <v>1579601</v>
       </c>
       <c r="D309" s="5">
@@ -15516,7 +15515,7 @@
       <c r="B314" s="6">
         <v>1896</v>
       </c>
-      <c r="C314" s="8">
+      <c r="C314" s="7">
         <v>1550973</v>
       </c>
       <c r="D314" s="5">
@@ -15530,7 +15529,7 @@
       <c r="B315" s="6">
         <v>1897</v>
       </c>
-      <c r="C315" s="10">
+      <c r="C315" s="9">
         <v>1590192</v>
       </c>
       <c r="D315" s="5">
@@ -15575,7 +15574,7 @@
       <c r="C318" s="5">
         <v>1699349</v>
       </c>
-      <c r="D318" s="10">
+      <c r="D318" s="9">
         <v>87759</v>
       </c>
       <c r="E318" s="5">
@@ -15586,7 +15585,7 @@
       <c r="B319" s="6">
         <v>1901</v>
       </c>
-      <c r="C319" s="10">
+      <c r="C319" s="9">
         <v>1723317</v>
       </c>
       <c r="D319" s="5">
@@ -15603,13 +15602,13 @@
       <c r="B320" s="6">
         <v>1896</v>
       </c>
-      <c r="C320" s="10">
+      <c r="C320" s="9">
         <v>1423835</v>
       </c>
-      <c r="D320" s="10">
+      <c r="D320" s="9">
         <v>67383</v>
       </c>
-      <c r="E320" s="10">
+      <c r="E320" s="9">
         <v>33055</v>
       </c>
     </row>
@@ -15617,7 +15616,7 @@
       <c r="B321" s="6">
         <v>1897</v>
       </c>
-      <c r="C321" s="10">
+      <c r="C321" s="9">
         <v>1426837</v>
       </c>
       <c r="D321" s="5">
@@ -15645,13 +15644,13 @@
       <c r="B323" s="6">
         <v>1899</v>
       </c>
-      <c r="C323" s="10">
+      <c r="C323" s="9">
         <v>1479164</v>
       </c>
       <c r="D323" s="5">
         <v>70050</v>
       </c>
-      <c r="E323" s="10">
+      <c r="E323" s="9">
         <v>37296</v>
       </c>
     </row>
@@ -15659,7 +15658,7 @@
       <c r="B324" s="6">
         <v>1900</v>
       </c>
-      <c r="C324" s="9">
+      <c r="C324" s="8">
         <v>1524392</v>
       </c>
       <c r="D324" s="5">
@@ -15673,13 +15672,13 @@
       <c r="B325" s="6">
         <v>1901</v>
       </c>
-      <c r="C325" s="14">
+      <c r="C325" s="13">
         <v>1562106</v>
       </c>
-      <c r="D325" s="14">
+      <c r="D325" s="13">
         <v>67123</v>
       </c>
-      <c r="E325" s="14">
+      <c r="E325" s="13">
         <v>37971</v>
       </c>
     </row>
@@ -15690,13 +15689,13 @@
       <c r="B326" s="6">
         <v>1896</v>
       </c>
-      <c r="C326" s="15">
+      <c r="C326" s="14">
         <v>2715265</v>
       </c>
-      <c r="D326" s="14">
+      <c r="D326" s="13">
         <v>144989</v>
       </c>
-      <c r="E326" s="14">
+      <c r="E326" s="13">
         <v>94155</v>
       </c>
     </row>
@@ -15704,13 +15703,13 @@
       <c r="B327" s="6">
         <v>1897</v>
       </c>
-      <c r="C327" s="15">
+      <c r="C327" s="14">
         <v>2769204</v>
       </c>
-      <c r="D327" s="14">
+      <c r="D327" s="13">
         <v>148253</v>
       </c>
-      <c r="E327" s="14">
+      <c r="E327" s="13">
         <v>90037</v>
       </c>
     </row>
@@ -15718,13 +15717,13 @@
       <c r="B328" s="6">
         <v>1898</v>
       </c>
-      <c r="C328" s="14">
+      <c r="C328" s="13">
         <v>3011523</v>
       </c>
-      <c r="D328" s="14">
+      <c r="D328" s="13">
         <v>139331</v>
       </c>
-      <c r="E328" s="14">
+      <c r="E328" s="13">
         <v>111021</v>
       </c>
     </row>
@@ -15732,13 +15731,13 @@
       <c r="B329" s="6">
         <v>1899</v>
       </c>
-      <c r="C329" s="14">
+      <c r="C329" s="13">
         <v>3085873</v>
       </c>
-      <c r="D329" s="14">
+      <c r="D329" s="13">
         <v>148152</v>
       </c>
-      <c r="E329" s="15">
+      <c r="E329" s="14">
         <v>86606</v>
       </c>
     </row>
@@ -15746,13 +15745,13 @@
       <c r="B330" s="6">
         <v>1900</v>
       </c>
-      <c r="C330" s="14">
+      <c r="C330" s="13">
         <v>3149625</v>
       </c>
-      <c r="D330" s="15">
+      <c r="D330" s="14">
         <v>155565</v>
       </c>
-      <c r="E330" s="14">
+      <c r="E330" s="13">
         <v>91358</v>
       </c>
     </row>
@@ -15760,13 +15759,13 @@
       <c r="B331" s="6">
         <v>1901</v>
       </c>
-      <c r="C331" s="14">
+      <c r="C331" s="13">
         <v>3161116</v>
       </c>
-      <c r="D331" s="14">
+      <c r="D331" s="13">
         <v>155877</v>
       </c>
-      <c r="E331" s="14">
+      <c r="E331" s="13">
         <v>107068</v>
       </c>
     </row>
@@ -15777,13 +15776,13 @@
       <c r="B332" s="6">
         <v>1896</v>
       </c>
-      <c r="C332" s="13">
+      <c r="C332" s="12">
         <v>1912559</v>
       </c>
-      <c r="D332" s="14">
+      <c r="D332" s="13">
         <v>88178</v>
       </c>
-      <c r="E332" s="14">
+      <c r="E332" s="13">
         <v>66574</v>
       </c>
     </row>
@@ -15791,13 +15790,13 @@
       <c r="B333" s="6">
         <v>1897</v>
       </c>
-      <c r="C333" s="11">
+      <c r="C333" s="10">
         <v>1976494</v>
       </c>
-      <c r="D333" s="14">
+      <c r="D333" s="13">
         <v>89815</v>
       </c>
-      <c r="E333" s="14">
+      <c r="E333" s="13">
         <v>64180</v>
       </c>
     </row>
@@ -15805,13 +15804,13 @@
       <c r="B334" s="6">
         <v>1898</v>
       </c>
-      <c r="C334" s="14">
+      <c r="C334" s="13">
         <v>2043290</v>
       </c>
-      <c r="D334" s="14">
+      <c r="D334" s="13">
         <v>90233</v>
       </c>
-      <c r="E334" s="14">
+      <c r="E334" s="13">
         <v>65455</v>
       </c>
     </row>
@@ -15819,13 +15818,13 @@
       <c r="B335" s="6">
         <v>1899</v>
       </c>
-      <c r="C335" s="11">
+      <c r="C335" s="10">
         <v>2079665</v>
       </c>
-      <c r="D335" s="14">
+      <c r="D335" s="13">
         <v>94327</v>
       </c>
-      <c r="E335" s="14">
+      <c r="E335" s="13">
         <v>56952</v>
       </c>
     </row>
@@ -15833,13 +15832,13 @@
       <c r="B336" s="6">
         <v>1900</v>
       </c>
-      <c r="C336" s="14">
+      <c r="C336" s="13">
         <v>2104704</v>
       </c>
-      <c r="D336" s="14">
+      <c r="D336" s="13">
         <v>92374</v>
       </c>
-      <c r="E336" s="9">
+      <c r="E336" s="8">
         <v>67275</v>
       </c>
     </row>
@@ -15847,13 +15846,13 @@
       <c r="B337" s="6">
         <v>1901</v>
       </c>
-      <c r="C337" s="14">
+      <c r="C337" s="13">
         <v>2117891</v>
       </c>
-      <c r="D337" s="14">
+      <c r="D337" s="13">
         <v>93133</v>
       </c>
-      <c r="E337" s="14">
+      <c r="E337" s="13">
         <v>79946</v>
       </c>
     </row>
@@ -15864,13 +15863,13 @@
       <c r="B338" s="6">
         <v>1896</v>
       </c>
-      <c r="C338" s="9">
+      <c r="C338" s="8">
         <v>1431322</v>
       </c>
-      <c r="D338" s="14">
+      <c r="D338" s="13">
         <v>83327</v>
       </c>
-      <c r="E338" s="9">
+      <c r="E338" s="8">
         <v>57395</v>
       </c>
     </row>
@@ -15878,10 +15877,10 @@
       <c r="B339" s="6">
         <v>1897</v>
       </c>
-      <c r="C339" s="10">
+      <c r="C339" s="9">
         <v>1454113</v>
       </c>
-      <c r="D339" s="9">
+      <c r="D339" s="8">
         <v>88892</v>
       </c>
       <c r="E339" s="5">
@@ -15892,7 +15891,7 @@
       <c r="B340" s="6">
         <v>1898</v>
       </c>
-      <c r="C340" s="10">
+      <c r="C340" s="9">
         <v>1467986</v>
       </c>
       <c r="D340" s="5">
@@ -15906,7 +15905,7 @@
       <c r="B341" s="6">
         <v>1899</v>
       </c>
-      <c r="C341" s="9">
+      <c r="C341" s="8">
         <v>1479730</v>
       </c>
       <c r="D341" s="5">
@@ -15920,7 +15919,7 @@
       <c r="B342" s="6">
         <v>1900</v>
       </c>
-      <c r="C342" s="11">
+      <c r="C342" s="10">
         <v>1490341</v>
       </c>
       <c r="D342" s="5">
@@ -15951,7 +15950,7 @@
       <c r="B344" s="6">
         <v>1896</v>
       </c>
-      <c r="C344" s="9">
+      <c r="C344" s="8">
         <v>2259838</v>
       </c>
       <c r="D344" s="5">
@@ -15965,7 +15964,7 @@
       <c r="B345" s="6">
         <v>1897</v>
       </c>
-      <c r="C345" s="10">
+      <c r="C345" s="9">
         <v>2324241</v>
       </c>
       <c r="D345" s="5">
@@ -15993,7 +15992,7 @@
       <c r="B347" s="6">
         <v>1899</v>
       </c>
-      <c r="C347" s="10">
+      <c r="C347" s="9">
         <v>2435621</v>
       </c>
       <c r="D347" s="5">
@@ -16038,7 +16037,7 @@
       <c r="B350" s="6">
         <v>1896</v>
       </c>
-      <c r="C350" s="10">
+      <c r="C350" s="9">
         <v>2610378</v>
       </c>
       <c r="D350" s="5">
@@ -16052,7 +16051,7 @@
       <c r="B351" s="6">
         <v>1897</v>
       </c>
-      <c r="C351" s="10">
+      <c r="C351" s="9">
         <v>2665605</v>
       </c>
       <c r="D351" s="5">
@@ -16066,7 +16065,7 @@
       <c r="B352" s="6">
         <v>1898</v>
       </c>
-      <c r="C352" s="10">
+      <c r="C352" s="9">
         <v>2726175</v>
       </c>
       <c r="D352" s="5">
@@ -16080,7 +16079,7 @@
       <c r="B353" s="6">
         <v>1899</v>
       </c>
-      <c r="C353" s="8">
+      <c r="C353" s="7">
         <v>2782671</v>
       </c>
       <c r="D353" s="5">
@@ -16094,7 +16093,7 @@
       <c r="B354" s="6">
         <v>1900</v>
       </c>
-      <c r="C354" s="8">
+      <c r="C354" s="7">
         <v>2813040</v>
       </c>
       <c r="D354" s="5">
@@ -16108,7 +16107,7 @@
       <c r="B355" s="6">
         <v>1901</v>
       </c>
-      <c r="C355" s="10">
+      <c r="C355" s="9">
         <v>2827618</v>
       </c>
       <c r="D355" s="5">
@@ -16125,7 +16124,7 @@
       <c r="B356" s="6">
         <v>1896</v>
       </c>
-      <c r="C356" s="11">
+      <c r="C356" s="10">
         <v>2231797</v>
       </c>
       <c r="D356" s="5">
@@ -16139,7 +16138,7 @@
       <c r="B357" s="6">
         <v>1897</v>
       </c>
-      <c r="C357" s="10">
+      <c r="C357" s="9">
         <v>2289120</v>
       </c>
       <c r="D357" s="5">
@@ -16153,7 +16152,7 @@
       <c r="B358" s="6">
         <v>1898</v>
       </c>
-      <c r="C358" s="10">
+      <c r="C358" s="9">
         <v>2340599</v>
       </c>
       <c r="D358" s="5">
@@ -16167,13 +16166,13 @@
       <c r="B359" s="6">
         <v>1899</v>
       </c>
-      <c r="C359" s="9">
+      <c r="C359" s="8">
         <v>2394247</v>
       </c>
       <c r="D359" s="5">
         <v>121212</v>
       </c>
-      <c r="E359" s="10">
+      <c r="E359" s="9">
         <v>63696</v>
       </c>
     </row>
@@ -16181,7 +16180,7 @@
       <c r="B360" s="6">
         <v>1900</v>
       </c>
-      <c r="C360" s="9">
+      <c r="C360" s="8">
         <v>2450575</v>
       </c>
       <c r="D360" s="5">
@@ -16195,7 +16194,7 @@
       <c r="B361" s="6">
         <v>1901</v>
       </c>
-      <c r="C361" s="10">
+      <c r="C361" s="9">
         <v>2492382</v>
       </c>
       <c r="D361" s="5">
@@ -16212,7 +16211,7 @@
       <c r="B362" s="6">
         <v>1896</v>
       </c>
-      <c r="C362" s="10">
+      <c r="C362" s="9">
         <v>71060</v>
       </c>
       <c r="D362" s="5">
@@ -16226,7 +16225,7 @@
       <c r="B363" s="6">
         <v>1897</v>
       </c>
-      <c r="C363" s="11">
+      <c r="C363" s="10">
         <v>80919</v>
       </c>
       <c r="D363" s="5">
@@ -16476,7 +16475,7 @@
       <c r="C380" s="5">
         <v>1193593</v>
       </c>
-      <c r="D380" s="10">
+      <c r="D380" s="9">
         <v>46695</v>
       </c>
       <c r="E380" s="5">
@@ -16487,7 +16486,7 @@
       <c r="B381" s="6">
         <v>1897</v>
       </c>
-      <c r="C381" s="10">
+      <c r="C381" s="9">
         <v>1211469</v>
       </c>
       <c r="D381" s="5">
@@ -16501,7 +16500,7 @@
       <c r="B382" s="6">
         <v>1898</v>
       </c>
-      <c r="C382" s="11">
+      <c r="C382" s="10">
         <v>1236763</v>
       </c>
       <c r="D382" s="5">
@@ -16529,7 +16528,7 @@
       <c r="B384" s="6">
         <v>1900</v>
       </c>
-      <c r="C384" s="11">
+      <c r="C384" s="10">
         <v>1278549</v>
       </c>
       <c r="D384" s="5">
@@ -16964,7 +16963,7 @@
       <c r="B414" s="6">
         <v>1900</v>
       </c>
-      <c r="C414" s="10">
+      <c r="C414" s="9">
         <v>278616</v>
       </c>
       <c r="D414" s="5">
@@ -16995,7 +16994,7 @@
       <c r="B416" s="6">
         <v>1896</v>
       </c>
-      <c r="C416" s="10">
+      <c r="C416" s="9">
         <v>1826323</v>
       </c>
       <c r="D416" s="5">
@@ -17082,7 +17081,7 @@
       <c r="B422" s="6">
         <v>1896</v>
       </c>
-      <c r="C422" s="10">
+      <c r="C422" s="9">
         <v>1069969</v>
       </c>
       <c r="D422" s="5">
@@ -17517,8 +17516,8 @@
       <c r="B452" s="6">
         <v>1896</v>
       </c>
-      <c r="C452" s="5">
-        <v>756191</v>
+      <c r="C452" s="12">
+        <v>789191</v>
       </c>
       <c r="D452" s="5">
         <v>29298</v>
@@ -17531,8 +17530,8 @@
       <c r="B453" s="6">
         <v>1897</v>
       </c>
-      <c r="C453" s="5">
-        <v>888689</v>
+      <c r="C453" s="12">
+        <v>808089</v>
       </c>
       <c r="D453" s="5">
         <v>29328</v>
@@ -17545,8 +17544,8 @@
       <c r="B454" s="6">
         <v>1898</v>
       </c>
-      <c r="C454" s="5">
-        <v>819222</v>
+      <c r="C454" s="9">
+        <v>829222</v>
       </c>
       <c r="D454" s="5">
         <v>32305</v>
@@ -17632,8 +17631,8 @@
       <c r="B460" s="6">
         <v>1898</v>
       </c>
-      <c r="C460" s="5">
-        <v>92784</v>
+      <c r="C460" s="8">
+        <v>93784</v>
       </c>
       <c r="D460" s="5">
         <v>3951</v>
@@ -17660,8 +17659,8 @@
       <c r="B462" s="6">
         <v>1900</v>
       </c>
-      <c r="C462" s="5">
-        <v>101137</v>
+      <c r="C462" s="8">
+        <v>101637</v>
       </c>
       <c r="D462" s="5">
         <v>4983</v>
@@ -17691,8 +17690,8 @@
       <c r="B464" s="6">
         <v>1896</v>
       </c>
-      <c r="C464" s="5">
-        <v>544807</v>
+      <c r="C464" s="8">
+        <v>547807</v>
       </c>
       <c r="D464" s="5">
         <v>27402</v>
@@ -17719,8 +17718,8 @@
       <c r="B466" s="6">
         <v>1898</v>
       </c>
-      <c r="C466" s="5">
-        <v>546738</v>
+      <c r="C466" s="9">
+        <v>566738</v>
       </c>
       <c r="D466" s="5">
         <v>29746</v>
@@ -17733,10 +17732,10 @@
       <c r="B467" s="6">
         <v>1899</v>
       </c>
-      <c r="C467" s="7">
-        <v>607500</v>
-      </c>
-      <c r="D467" s="7">
+      <c r="C467" s="8">
+        <v>577851</v>
+      </c>
+      <c r="D467" s="8">
         <v>30525</v>
       </c>
       <c r="E467" s="5">
@@ -17747,8 +17746,8 @@
       <c r="B468" s="6">
         <v>1900</v>
       </c>
-      <c r="C468" s="5">
-        <v>616266</v>
+      <c r="C468" s="8">
+        <v>587851</v>
       </c>
       <c r="D468" s="5">
         <v>34448</v>
@@ -17761,8 +17760,8 @@
       <c r="B469" s="6">
         <v>1901</v>
       </c>
-      <c r="C469" s="5">
-        <v>682644</v>
+      <c r="C469" s="8">
+        <v>600467</v>
       </c>
       <c r="D469" s="5">
         <v>36344</v>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1896-1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463233D2-AB74-453E-982E-D933F15EAAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D768233A-D18C-45D5-800D-CA3215F62935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="95910" yWindow="195" windowWidth="18975" windowHeight="22725" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
+    <workbookView xWindow="95925" yWindow="240" windowWidth="18975" windowHeight="22905" activeTab="1" xr2:uid="{612ECE8A-2482-4A8D-B910-9BB68D33C7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,19 +606,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -627,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -648,9 +639,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -10955,8 +10943,8 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C468" sqref="C468:C469"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G599" sqref="G599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15672,13 +15660,13 @@
       <c r="B325" s="6">
         <v>1901</v>
       </c>
-      <c r="C325" s="13">
+      <c r="C325" s="12">
         <v>1562106</v>
       </c>
-      <c r="D325" s="13">
+      <c r="D325" s="12">
         <v>67123</v>
       </c>
-      <c r="E325" s="13">
+      <c r="E325" s="12">
         <v>37971</v>
       </c>
     </row>
@@ -15689,13 +15677,13 @@
       <c r="B326" s="6">
         <v>1896</v>
       </c>
-      <c r="C326" s="14">
+      <c r="C326" s="13">
         <v>2715265</v>
       </c>
-      <c r="D326" s="13">
+      <c r="D326" s="12">
         <v>144989</v>
       </c>
-      <c r="E326" s="13">
+      <c r="E326" s="12">
         <v>94155</v>
       </c>
     </row>
@@ -15703,13 +15691,13 @@
       <c r="B327" s="6">
         <v>1897</v>
       </c>
-      <c r="C327" s="14">
+      <c r="C327" s="13">
         <v>2769204</v>
       </c>
-      <c r="D327" s="13">
+      <c r="D327" s="12">
         <v>148253</v>
       </c>
-      <c r="E327" s="13">
+      <c r="E327" s="12">
         <v>90037</v>
       </c>
     </row>
@@ -15717,13 +15705,13 @@
       <c r="B328" s="6">
         <v>1898</v>
       </c>
-      <c r="C328" s="13">
+      <c r="C328" s="12">
         <v>3011523</v>
       </c>
-      <c r="D328" s="13">
+      <c r="D328" s="12">
         <v>139331</v>
       </c>
-      <c r="E328" s="13">
+      <c r="E328" s="12">
         <v>111021</v>
       </c>
     </row>
@@ -15731,13 +15719,13 @@
       <c r="B329" s="6">
         <v>1899</v>
       </c>
-      <c r="C329" s="13">
+      <c r="C329" s="12">
         <v>3085873</v>
       </c>
-      <c r="D329" s="13">
+      <c r="D329" s="12">
         <v>148152</v>
       </c>
-      <c r="E329" s="14">
+      <c r="E329" s="13">
         <v>86606</v>
       </c>
     </row>
@@ -15745,13 +15733,13 @@
       <c r="B330" s="6">
         <v>1900</v>
       </c>
-      <c r="C330" s="13">
+      <c r="C330" s="12">
         <v>3149625</v>
       </c>
-      <c r="D330" s="14">
+      <c r="D330" s="13">
         <v>155565</v>
       </c>
-      <c r="E330" s="13">
+      <c r="E330" s="12">
         <v>91358</v>
       </c>
     </row>
@@ -15759,13 +15747,13 @@
       <c r="B331" s="6">
         <v>1901</v>
       </c>
-      <c r="C331" s="13">
+      <c r="C331" s="12">
         <v>3161116</v>
       </c>
-      <c r="D331" s="13">
+      <c r="D331" s="12">
         <v>155877</v>
       </c>
-      <c r="E331" s="13">
+      <c r="E331" s="12">
         <v>107068</v>
       </c>
     </row>
@@ -15776,13 +15764,13 @@
       <c r="B332" s="6">
         <v>1896</v>
       </c>
-      <c r="C332" s="12">
+      <c r="C332" s="13">
         <v>1912559</v>
       </c>
-      <c r="D332" s="13">
+      <c r="D332" s="12">
         <v>88178</v>
       </c>
-      <c r="E332" s="13">
+      <c r="E332" s="12">
         <v>66574</v>
       </c>
     </row>
@@ -15793,10 +15781,10 @@
       <c r="C333" s="10">
         <v>1976494</v>
       </c>
-      <c r="D333" s="13">
+      <c r="D333" s="12">
         <v>89815</v>
       </c>
-      <c r="E333" s="13">
+      <c r="E333" s="12">
         <v>64180</v>
       </c>
     </row>
@@ -15804,13 +15792,13 @@
       <c r="B334" s="6">
         <v>1898</v>
       </c>
-      <c r="C334" s="13">
+      <c r="C334" s="12">
         <v>2043290</v>
       </c>
-      <c r="D334" s="13">
+      <c r="D334" s="12">
         <v>90233</v>
       </c>
-      <c r="E334" s="13">
+      <c r="E334" s="12">
         <v>65455</v>
       </c>
     </row>
@@ -15821,10 +15809,10 @@
       <c r="C335" s="10">
         <v>2079665</v>
       </c>
-      <c r="D335" s="13">
+      <c r="D335" s="12">
         <v>94327</v>
       </c>
-      <c r="E335" s="13">
+      <c r="E335" s="12">
         <v>56952</v>
       </c>
     </row>
@@ -15832,10 +15820,10 @@
       <c r="B336" s="6">
         <v>1900</v>
       </c>
-      <c r="C336" s="13">
+      <c r="C336" s="12">
         <v>2104704</v>
       </c>
-      <c r="D336" s="13">
+      <c r="D336" s="12">
         <v>92374</v>
       </c>
       <c r="E336" s="8">
@@ -15846,13 +15834,13 @@
       <c r="B337" s="6">
         <v>1901</v>
       </c>
-      <c r="C337" s="13">
+      <c r="C337" s="12">
         <v>2117891</v>
       </c>
-      <c r="D337" s="13">
+      <c r="D337" s="12">
         <v>93133</v>
       </c>
-      <c r="E337" s="13">
+      <c r="E337" s="12">
         <v>79946</v>
       </c>
     </row>
@@ -15866,7 +15854,7 @@
       <c r="C338" s="8">
         <v>1431322</v>
       </c>
-      <c r="D338" s="13">
+      <c r="D338" s="12">
         <v>83327</v>
       </c>
       <c r="E338" s="8">
@@ -17516,7 +17504,7 @@
       <c r="B452" s="6">
         <v>1896</v>
       </c>
-      <c r="C452" s="12">
+      <c r="C452" s="13">
         <v>789191</v>
       </c>
       <c r="D452" s="5">
@@ -17530,7 +17518,7 @@
       <c r="B453" s="6">
         <v>1897</v>
       </c>
-      <c r="C453" s="12">
+      <c r="C453" s="13">
         <v>808089</v>
       </c>
       <c r="D453" s="5">
@@ -17864,14 +17852,14 @@
       <c r="B476" s="6">
         <v>1896</v>
       </c>
-      <c r="C476" s="5">
-        <v>497188</v>
-      </c>
-      <c r="D476" s="5">
-        <v>25758</v>
-      </c>
-      <c r="E476" s="5">
-        <v>21225</v>
+      <c r="C476" s="8">
+        <v>491188</v>
+      </c>
+      <c r="D476" s="9">
+        <v>23058</v>
+      </c>
+      <c r="E476" s="9">
+        <v>18897</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -17906,8 +17894,8 @@
       <c r="B479" s="6">
         <v>1899</v>
       </c>
-      <c r="C479" s="5">
-        <v>539738</v>
+      <c r="C479" s="10">
+        <v>529738</v>
       </c>
       <c r="D479" s="5">
         <v>23630</v>
@@ -17940,7 +17928,7 @@
       <c r="D481" s="5">
         <v>24615</v>
       </c>
-      <c r="E481" s="5">
+      <c r="E481" s="10">
         <v>17180</v>
       </c>
     </row>
@@ -18007,7 +17995,7 @@
       <c r="B486" s="6">
         <v>1900</v>
       </c>
-      <c r="C486" s="5">
+      <c r="C486" s="9">
         <v>268592</v>
       </c>
       <c r="D486" s="5">
@@ -18080,8 +18068,8 @@
       <c r="B491" s="6">
         <v>1899</v>
       </c>
-      <c r="C491" s="5">
-        <v>1423244</v>
+      <c r="C491" s="8">
+        <v>1493244</v>
       </c>
       <c r="D491" s="5">
         <v>86597</v>
@@ -18094,8 +18082,8 @@
       <c r="B492" s="6">
         <v>1900</v>
       </c>
-      <c r="C492" s="5">
-        <v>1598388</v>
+      <c r="C492" s="9">
+        <v>1523244</v>
       </c>
       <c r="D492" s="5">
         <v>90140</v>
@@ -18108,8 +18096,8 @@
       <c r="B493" s="6">
         <v>1901</v>
       </c>
-      <c r="C493" s="5">
-        <v>1605652</v>
+      <c r="C493" s="9">
+        <v>1555652</v>
       </c>
       <c r="D493" s="5">
         <v>91242</v>
@@ -18181,11 +18169,11 @@
       <c r="B498" s="6">
         <v>1900</v>
       </c>
-      <c r="C498" s="5">
-        <v>2038274</v>
-      </c>
-      <c r="D498" s="5">
-        <v>112373</v>
+      <c r="C498" s="8">
+        <v>2138274</v>
+      </c>
+      <c r="D498" s="8">
+        <v>115373</v>
       </c>
       <c r="E498" s="5">
         <v>74439</v>
@@ -18195,8 +18183,8 @@
       <c r="B499" s="6">
         <v>1901</v>
       </c>
-      <c r="C499" s="5">
-        <v>2082933</v>
+      <c r="C499" s="8">
+        <v>2182933</v>
       </c>
       <c r="D499" s="5">
         <v>114291</v>
@@ -18212,39 +18200,39 @@
       <c r="B500" s="6">
         <v>1896</v>
       </c>
-      <c r="C500" s="5">
-        <v>277353</v>
-      </c>
-      <c r="D500" s="5">
-        <v>11277</v>
-      </c>
-      <c r="E500" s="5">
-        <v>6541</v>
+      <c r="C500" s="9">
+        <v>273954</v>
+      </c>
+      <c r="D500" s="8">
+        <v>11035</v>
+      </c>
+      <c r="E500" s="8">
+        <v>6520</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B501" s="6">
         <v>1897</v>
       </c>
-      <c r="C501" s="5">
-        <v>273954</v>
-      </c>
-      <c r="D501" s="5">
-        <v>11035</v>
-      </c>
-      <c r="E501" s="5">
-        <v>6520</v>
+      <c r="C501" s="9">
+        <v>276353</v>
+      </c>
+      <c r="D501" s="8">
+        <v>11277</v>
+      </c>
+      <c r="E501" s="8">
+        <v>6451</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B502" s="6">
         <v>1898</v>
       </c>
-      <c r="C502" s="5">
-        <v>269570</v>
-      </c>
-      <c r="D502" s="5">
-        <v>9757</v>
+      <c r="C502" s="8">
+        <v>280813</v>
+      </c>
+      <c r="D502" s="9">
+        <v>10547</v>
       </c>
       <c r="E502" s="5">
         <v>5790</v>
@@ -18254,11 +18242,11 @@
       <c r="B503" s="6">
         <v>1899</v>
       </c>
-      <c r="C503" s="5">
-        <v>277615</v>
-      </c>
-      <c r="D503" s="5">
-        <v>10550</v>
+      <c r="C503" s="9">
+        <v>284615</v>
+      </c>
+      <c r="D503" s="9">
+        <v>10850</v>
       </c>
       <c r="E503" s="5">
         <v>7252</v>
@@ -18268,8 +18256,8 @@
       <c r="B504" s="6">
         <v>1900</v>
       </c>
-      <c r="C504" s="5">
-        <v>258282</v>
+      <c r="C504" s="8">
+        <v>288282</v>
       </c>
       <c r="D504" s="5">
         <v>10593</v>
@@ -18282,8 +18270,8 @@
       <c r="B505" s="6">
         <v>1901</v>
       </c>
-      <c r="C505" s="5">
-        <v>261708</v>
+      <c r="C505" s="9">
+        <v>291708</v>
       </c>
       <c r="D505" s="5">
         <v>13200</v>
